--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -1493,40 +1493,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.4375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.01171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -440,7 +440,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>PrefectureNo</t>
+    <t>prefectureNo</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_PrefectureNo}
@@ -462,7 +462,7 @@
 </t>
   </si>
   <si>
-    <t>OrganizationCategory</t>
+    <t>organizationCategory</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationCategory}
@@ -480,7 +480,7 @@
 を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
-    <t>OrganizationNo</t>
+    <t>organizationNo</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Organization_InsuranceOrganizationNo}
@@ -559,7 +559,7 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>MedicalInstitutionCode</t>
+    <t>medicalInstitutionCode</t>
   </si>
   <si>
     <t>Identifies this organization  across multiple systems</t>
@@ -800,7 +800,7 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>InsurerNumber</t>
+    <t>insurerNumber</t>
   </si>
   <si>
     <t>--- SWG3 コメント---
@@ -1494,7 +1494,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.2421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -536,7 +536,7 @@
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
-組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集しています。</t>
+組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集している。</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -827,12 +827,12 @@
   <si>
     <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
 This element is labeled as a modifier because it may be used to mark that the resource was created in error.
-このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していません。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要があります。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要があります。
-この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされています。</t>
+このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。
+この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされている。</t>
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.
-レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要があります。</t>
+レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -863,13 +863,13 @@
     <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
 When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
 We expect that some jurisdictions will profile this optionality to be a single cardinality.
-組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができます。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードです。
-複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要があります。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
+組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。
+複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要がある。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
 いくつかの法域では、このオプション性を単一のカーディナリティとしてプロファイルすると予想される。</t>
   </si>
   <si>
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.
-これがある組織の種類を追跡することができる必要があります - 異なる組織の種類は、異なる用途を持っています。</t>
+これがある組織の種類を追跡することができる必要がある - 異なる組織の種類は、異なる用途を持っている。</t>
   </si>
   <si>
     <t>example</t>
@@ -905,7 +905,7 @@
   </si>
   <si>
     <t>Need to use the name as the label of the organization.
-組織のラベルとして名前を使用する必要があります。</t>
+組織のラベルとして名前を使用する必要がある。</t>
   </si>
   <si>
     <t>XON.1</t>
@@ -928,13 +928,13 @@
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.
-これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はありません。</t>
+これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はない。</t>
   </si>
   <si>
     <t>Over time locations and organizations go through many changes and can be known by different names.
 For searching knowing previous names that the organization was known by can be very useful.
-時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができます。
-組織が知っている前の名前を知るための検索には、非常に便利なことができます。</t>
+時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。
+組織が知っている前の名前を知るための検索には、非常に便利なことができる。</t>
   </si>
   <si>
     <t>Organization.telecom</t>
@@ -991,11 +991,11 @@
   </si>
   <si>
     <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.
-組織は、用途や適用期間が異なる複数の住所を持っている場合があります。使用コード「home」は使用しないでください。</t>
+組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないでください。</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.
-連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合があります。</t>
+連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合がある。</t>
   </si>
   <si>
     <t xml:space="preserve">org-2
@@ -1026,7 +1026,7 @@
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要があります（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -568,8 +568,7 @@
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>--- SWG3 コメント---
-処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
+    <t>処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
 systemはFixed Valueの
 ```
 http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no@@ -803,8 +802,7 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>--- SWG3 コメント---
-健康保険組合などの保険者の保険者番号を表現する際のIdentifer表現に使用する
+    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifer表現に使用する
 system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -899,7 +899,7 @@
   </si>
   <si>
     <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.
-組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討してください。</t>
+組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討すべきである。</t>
   </si>
   <si>
     <t>Need to use the name as the label of the organization.
@@ -950,7 +950,7 @@
   </si>
   <si>
     <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.
-使用コード「home」は使用しないでください。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意してください。</t>
+使用コード「home」は使用しないこと。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意すること。</t>
   </si>
   <si>
     <t>Human contact for the organization.
@@ -989,7 +989,7 @@
   </si>
   <si>
     <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.
-組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないでください。</t>
+組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないこと。</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -259,8 +259,8 @@
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}org-1:組織には、少なくとも名前または識別子があり、場合によっては複数の名前があります / The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -282,13 +282,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -301,16 +301,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -340,19 +340,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -372,13 +372,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -398,13 +398,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -436,8 +436,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>prefectureNo</t>
@@ -505,17 +505,18 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -562,10 +563,10 @@
     <t>medicalInstitutionCode</t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>複数のシステムでこの組織を識別します / Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>複数の異なるシステムにわたって組織を識別するために使用される組織の識別子。 / Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
@@ -589,16 +590,16 @@
 　　各地域を所管する厚生労働省の地方支分部局である地方厚生局のホームページ等で確認できる。</t>
   </si>
   <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+    <t>組織はさまざまなIDで知られています。一部の機関は、組織に関する他の組織と交換のためにいくつかの識別子を維持しています。 / Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -610,10 +611,10 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -625,22 +626,22 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -659,22 +660,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -689,16 +690,16 @@
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
@@ -722,13 +723,13 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -753,10 +754,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -778,13 +779,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -833,7 +834,7 @@
 レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要がある。</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -873,7 +874,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization.</t>
+    <t>組織の分類に使用されます。 / Used to categorize the organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -961,8 +962,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:組織のテレコムは決して「家」を使用することはできません / The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1000,8 +1001,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:組織の住所は、「家」を使用することはできません / An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-23?</t>
@@ -1027,7 +1028,7 @@
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+    <t>組織内の組織の階層を追跡できる必要があります。 / Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
@@ -1071,10 +1072,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1084,16 +1086,16 @@
     <t>Organization.contact.purpose</t>
   </si>
   <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
+    <t>連絡先の種類 / The type of contact</t>
+  </si>
+  <si>
+    <t>連絡先に到達できる目的を示します。 / Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>複数の連絡先を区別する必要があります。 / Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>連絡先に連絡する目的。 / The purpose for which you would contact a contact party.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1109,13 +1111,13 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
+    <t>連絡先に関連付けられた名前 / A name associated with the contact</t>
+  </si>
+  <si>
+    <t>連絡先に関連付けられた名前。 / A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>名前でその人を追跡できる必要があります。 / Need to be able to track the person by name.</t>
   </si>
   <si>
     <t>PID-5, PID-9</t>
@@ -1127,13 +1129,13 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+    <t>連絡先の連絡先の詳細（電話、電子メールなど） / Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>当事者に連絡することができる連絡先の詳細（電話番号や電子メールアドレスなど）。 / A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>人々は、電話、電子メールなど、何らかの方法でそれらに連絡する（プライマリ）方法を持っています。 / People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
     <t>PID-13, PID-14</t>
@@ -1145,13 +1147,13 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+    <t>連絡先の訪問または郵便アドレス / Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>連絡先の訪問または郵便アドレス。 / Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>要件を連絡、請求、または報告するために、コンタクトパーティーの住所を追跡する必要がある場合があります。 / May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>PID-11</t>
@@ -1514,7 +1516,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -259,8 +259,8 @@
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}org-1:組織には、少なくとも名前または識別子があり、場合によっては複数の名前があります / The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -282,13 +282,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -301,16 +301,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -321,13 +321,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -340,19 +340,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -372,13 +372,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -398,13 +398,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -436,8 +436,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>prefectureNo</t>
@@ -505,18 +505,17 @@
 user content</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -563,10 +562,10 @@
     <t>medicalInstitutionCode</t>
   </si>
   <si>
-    <t>複数のシステムでこの組織を識別します / Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>複数の異なるシステムにわたって組織を識別するために使用される組織の識別子。 / Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
@@ -590,16 +589,16 @@
 　　各地域を所管する厚生労働省の地方支分部局である地方厚生局のホームページ等で確認できる。</t>
   </si>
   <si>
-    <t>組織はさまざまなIDで知られています。一部の機関は、組織に関する他の組織と交換のためにいくつかの識別子を維持しています。 / Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -611,10 +610,10 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -626,22 +625,22 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>この識別子の目的。 / The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
@@ -660,22 +659,22 @@
 </t>
   </si>
   <si>
-    <t>識別子の説明 / Description of identifier</t>
-  </si>
-  <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -690,16 +689,16 @@
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>識別子値の名前空間 / The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
@@ -723,13 +722,13 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>一意の値 / The value that is unique</t>
-  </si>
-  <si>
-    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -754,10 +753,10 @@
 </t>
   </si>
   <si>
-    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -779,13 +778,13 @@
 </t>
   </si>
   <si>
-    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -834,7 +833,7 @@
 レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要がある。</t>
   </si>
   <si>
-    <t>このリソースは、アクティブな要素の値が提供されていない場合、一般にアクティブであると想定されています / This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>No equivalent in HL7 v2</t>
@@ -874,7 +873,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>組織の分類に使用されます。 / Used to categorize the organization.</t>
+    <t>Used to categorize the organization.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -962,8 +961,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:組織のテレコムは決して「家」を使用することはできません / The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1001,8 +1000,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:組織の住所は、「家」を使用することはできません / An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-23?</t>
@@ -1028,7 +1027,7 @@
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
-    <t>組織内の組織の階層を追跡できる必要があります。 / Need to be able to track the hierarchy of organizations within an organization.</t>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
@@ -1072,11 +1071,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1086,16 +1084,16 @@
     <t>Organization.contact.purpose</t>
   </si>
   <si>
-    <t>連絡先の種類 / The type of contact</t>
-  </si>
-  <si>
-    <t>連絡先に到達できる目的を示します。 / Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>複数の連絡先を区別する必要があります。 / Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>連絡先に連絡する目的。 / The purpose for which you would contact a contact party.</t>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1111,13 +1109,13 @@
 </t>
   </si>
   <si>
-    <t>連絡先に関連付けられた名前 / A name associated with the contact</t>
-  </si>
-  <si>
-    <t>連絡先に関連付けられた名前。 / A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>名前でその人を追跡できる必要があります。 / Need to be able to track the person by name.</t>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
   </si>
   <si>
     <t>PID-5, PID-9</t>
@@ -1129,13 +1127,13 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>連絡先の連絡先の詳細（電話、電子メールなど） / Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>当事者に連絡することができる連絡先の詳細（電話番号や電子メールアドレスなど）。 / A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>人々は、電話、電子メールなど、何らかの方法でそれらに連絡する（プライマリ）方法を持っています。 / People have (primary) ways to contact them in some way such as phone, email.</t>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
     <t>PID-13, PID-14</t>
@@ -1147,13 +1145,13 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>連絡先の訪問または郵便アドレス / Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>連絡先の訪問または郵便アドレス。 / Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>要件を連絡、請求、または報告するために、コンタクトパーティーの住所を追跡する必要がある場合があります。 / May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
   </si>
   <si>
     <t>PID-11</t>
@@ -1516,7 +1514,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="145.265625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -557,6 +557,210 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Organization.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Organization.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Organization.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Organization.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Organization.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Organization.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>medicalInstitutionCode</t>
@@ -592,211 +796,11 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>insurerNumber</t>
@@ -1105,23 +1109,31 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName
+    <t xml:space="preserve">HumanName {http://jpfhir.jp/fhir/core/StructureDefinition/JP_HumanName}
 </t>
   </si>
   <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
+    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>A human's name with the ability to identify parts and usage.
+識別のための人の名前情報、</t>
+  </si>
+  <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
+名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
   </si>
   <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
+    <t>XPN</t>
+  </si>
+  <si>
+    <t>EN (actually, PN)</t>
+  </si>
+  <si>
+    <t>ProviderName</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -1482,7 +1494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3094,11 +3106,9 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -3116,10 +3126,10 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3127,12 +3137,8 @@
       <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3180,31 +3186,31 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -3213,14 +3219,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>76</v>
@@ -3232,7 +3238,7 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>177</v>
@@ -3240,7 +3246,9 @@
       <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3277,37 +3285,37 @@
         <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3322,26 +3330,26 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>182</v>
@@ -3350,9 +3358,11 @@
         <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3376,49 +3386,49 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3429,7 +3439,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3446,25 +3456,25 @@
         <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3489,13 +3499,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3513,7 +3523,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3528,10 +3538,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3542,7 +3552,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3565,19 +3575,19 @@
         <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3590,7 +3600,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3602,13 +3612,13 @@
         <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>76</v>
@@ -3626,7 +3636,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3641,13 +3651,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3655,7 +3665,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3663,7 +3673,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
@@ -3678,32 +3688,30 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3739,7 +3747,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3754,13 +3762,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3768,7 +3776,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3791,17 +3799,15 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
@@ -3814,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3856,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3865,13 +3871,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3879,7 +3885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3902,15 +3908,17 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3959,7 +3967,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3974,13 +3982,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3988,9 +3996,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -4011,18 +4021,20 @@
         <v>86</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -4070,40 +4082,38 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -4121,10 +4131,10 @@
         <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>172</v>
@@ -4132,12 +4142,8 @@
       <c r="L24" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4185,31 +4191,31 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4237,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>177</v>
@@ -4245,7 +4251,9 @@
       <c r="L25" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
@@ -4282,37 +4290,37 @@
         <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4327,26 +4335,26 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>182</v>
@@ -4355,9 +4363,11 @@
         <v>183</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4381,49 +4391,49 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4434,7 +4444,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4451,25 +4461,25 @@
         <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4494,13 +4504,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4528,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4533,10 +4543,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4547,7 +4557,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4555,7 +4565,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4570,32 +4580,32 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4607,13 +4617,13 @@
         <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4631,7 +4641,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4646,13 +4656,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4660,7 +4670,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4668,7 +4678,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
@@ -4683,32 +4693,30 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4744,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4759,13 +4767,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4773,7 +4781,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4796,17 +4804,15 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4819,7 +4825,7 @@
         <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>76</v>
@@ -4855,7 +4861,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4870,13 +4876,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4884,7 +4890,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4907,15 +4913,17 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>76</v>
@@ -4964,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4979,13 +4987,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -4993,9 +5001,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5004,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5016,18 +5026,20 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5075,36 +5087,36 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5121,32 +5133,26 @@
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5190,7 +5196,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5202,28 +5208,28 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5239,23 +5245,21 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5279,31 +5283,31 @@
         <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5315,24 +5319,24 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5349,25 +5353,25 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5392,13 +5396,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5425,19 +5429,19 @@
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5456,7 +5460,7 @@
         <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>76</v>
@@ -5465,22 +5469,22 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5505,13 +5509,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5529,13 +5533,13 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5544,10 +5548,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5558,7 +5562,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5566,10 +5570,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>76</v>
@@ -5578,35 +5582,35 @@
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>203</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5642,28 +5646,28 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5671,7 +5675,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5682,7 +5686,7 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>76</v>
@@ -5691,23 +5695,21 @@
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5719,7 +5721,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5755,28 +5757,28 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>300</v>
+        <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>302</v>
+        <v>219</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5784,7 +5786,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5807,20 +5809,16 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5868,7 +5866,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5883,13 +5881,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>309</v>
+        <v>227</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5897,7 +5895,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5908,7 +5906,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -5917,23 +5915,21 @@
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5981,13 +5977,13 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>310</v>
+        <v>234</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5996,13 +5992,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>236</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6010,7 +6006,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6027,26 +6023,32 @@
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6090,7 +6092,7 @@
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6102,28 +6104,28 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6139,21 +6141,23 @@
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6177,13 +6181,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6201,7 +6205,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>185</v>
+        <v>259</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6213,59 +6217,59 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6314,28 +6318,28 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6343,7 +6347,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6354,7 +6358,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6366,17 +6370,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6401,13 +6407,13 @@
         <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>76</v>
@@ -6425,13 +6431,13 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6443,7 +6449,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6454,7 +6460,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6465,7 +6471,7 @@
         <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>76</v>
@@ -6477,17 +6483,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6536,28 +6544,28 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6565,7 +6573,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6588,17 +6596,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6647,7 +6657,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6656,19 +6666,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>301</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6676,7 +6686,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6696,20 +6706,22 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N47" t="s" s="2">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6758,7 +6770,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6773,13 +6785,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6787,7 +6799,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6810,19 +6822,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6871,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6889,12 +6901,904 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AF50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -1027,7 +1027,7 @@
 この組織が一部を構成する組織</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -772,7 +772,7 @@
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
-    <t>処方箋等の発行医療機関コードを格納するためのIdentifer/Slicing定義。
+    <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
 systemはFixed Valueの
 ```
 http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no@@ -806,7 +806,7 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifer表現に使用する
+    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
 system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -1117,7 +1117,7 @@
   </si>
   <si>
     <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報、</t>
+識別のための人の名前情報</t>
   </si>
   <si>
     <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -560,6 +560,10 @@
   </si>
   <si>
     <t>Organization.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3129,13 +3133,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3186,7 +3190,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3204,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3215,7 +3219,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3241,10 +3245,10 @@
         <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>157</v>
@@ -3288,7 +3292,7 @@
         <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -3297,7 +3301,7 @@
         <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3315,7 +3319,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3326,7 +3330,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3352,16 +3356,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3386,13 +3390,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3410,7 +3414,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3439,7 +3443,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3462,19 +3466,19 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3499,13 +3503,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3523,7 +3527,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3538,10 +3542,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3552,7 +3556,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3578,16 +3582,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3600,7 +3604,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3636,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3651,13 +3655,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3665,7 +3669,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3688,16 +3692,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3711,7 +3715,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3747,7 +3751,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3762,13 +3766,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3776,7 +3780,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3799,13 +3803,13 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3856,7 +3860,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3871,13 +3875,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3885,7 +3889,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3908,16 +3912,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3967,7 +3971,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3982,13 +3986,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3999,7 +4003,7 @@
         <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4024,16 +4028,16 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4134,13 +4138,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4191,7 +4195,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4209,7 +4213,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4220,7 +4224,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4246,10 +4250,10 @@
         <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -4293,7 +4297,7 @@
         <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4306,7 @@
         <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4320,7 +4324,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4331,7 +4335,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4357,16 +4361,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4391,13 +4395,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4415,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4433,7 +4437,7 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4444,7 +4448,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4467,19 +4471,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4504,13 +4508,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4528,7 +4532,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4543,10 +4547,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4557,7 +4561,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4583,29 +4587,29 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4641,7 +4645,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4656,13 +4660,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4670,7 +4674,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4693,16 +4697,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4716,7 +4720,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4752,7 +4756,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4767,13 +4771,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4781,7 +4785,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4804,13 +4808,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4861,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4876,13 +4880,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4913,16 +4917,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4972,7 +4976,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4987,13 +4991,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5004,7 +5008,7 @@
         <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5029,16 +5033,16 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5139,13 +5143,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5196,7 +5200,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5214,7 +5218,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5225,7 +5229,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5251,10 +5255,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>157</v>
@@ -5298,7 +5302,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -5307,7 +5311,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5325,7 +5329,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5336,7 +5340,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5362,16 +5366,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5396,13 +5400,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5420,7 +5424,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5442,7 @@
         <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5449,7 +5453,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5472,19 +5476,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5509,13 +5513,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5533,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5548,10 +5552,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5562,7 +5566,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5588,29 +5592,29 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5646,7 +5650,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5661,13 +5665,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5675,7 +5679,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5698,16 +5702,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5721,7 +5725,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5757,7 +5761,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5772,13 +5776,13 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5786,7 +5790,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5809,13 +5813,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5866,7 +5870,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5881,13 +5885,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5895,7 +5899,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5918,16 +5922,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5977,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5992,13 +5996,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6006,7 +6010,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6029,70 +6033,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6107,21 +6111,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6144,19 +6148,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6181,13 +6185,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6205,7 +6209,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6220,21 +6224,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6257,19 +6261,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6318,7 +6322,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6333,13 +6337,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6347,7 +6351,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6370,19 +6374,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6431,7 +6435,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6449,7 +6453,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6460,7 +6464,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6483,19 +6487,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6544,7 +6548,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6553,19 +6557,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6573,7 +6577,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6596,19 +6600,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6657,7 +6661,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6666,19 +6670,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6686,7 +6690,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6709,19 +6713,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6770,7 +6774,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6785,13 +6789,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6799,7 +6803,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6822,19 +6826,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6883,7 +6887,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6901,7 +6905,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6912,7 +6916,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6935,13 +6939,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6992,7 +6996,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7010,7 +7014,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7021,7 +7025,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7047,10 +7051,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>157</v>
@@ -7103,7 +7107,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7121,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7132,11 +7136,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7158,10 +7162,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7216,7 +7220,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7245,7 +7249,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7268,17 +7272,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7303,13 +7307,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7327,7 +7331,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7345,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7356,7 +7360,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7379,19 +7383,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7440,7 +7444,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7455,13 +7459,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7469,7 +7473,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7492,17 +7496,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7551,7 +7555,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7566,10 +7570,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7580,7 +7584,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7603,17 +7607,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7662,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7677,10 +7681,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7695,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7714,19 +7718,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7775,7 +7779,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7793,7 +7797,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="360">
   <si>
     <t>Property</t>
   </si>
@@ -533,6 +533,11 @@
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
 複数の異種システムにまたがって組織を識別するための識別子</t>
+  </si>
+  <si>
+    <t>もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
+医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
+例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
@@ -3032,9 +3037,11 @@
       <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>76</v>
@@ -3071,7 +3078,7 @@
         <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
@@ -3090,27 +3097,27 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3133,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3190,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3208,7 +3215,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3219,7 +3226,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3245,10 +3252,10 @@
         <v>130</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>157</v>
@@ -3292,7 +3299,7 @@
         <v>133</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>76</v>
@@ -3301,7 +3308,7 @@
         <v>134</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3319,7 +3326,7 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3330,7 +3337,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3356,16 +3363,16 @@
         <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>76</v>
@@ -3390,13 +3397,13 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3421,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3439,7 @@
         <v>128</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3443,7 +3450,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3466,19 +3473,19 @@
         <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
@@ -3503,13 +3510,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3527,7 +3534,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3542,10 +3549,10 @@
         <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3556,7 +3563,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3582,16 +3589,16 @@
         <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
@@ -3604,7 +3611,7 @@
         <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>76</v>
@@ -3640,7 +3647,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3655,13 +3662,13 @@
         <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
@@ -3669,7 +3676,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3692,16 +3699,16 @@
         <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3715,7 +3722,7 @@
         <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>76</v>
@@ -3751,7 +3758,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3766,13 +3773,13 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3780,7 +3787,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3803,13 +3810,13 @@
         <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3860,7 +3867,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3875,13 +3882,13 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3889,7 +3896,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3912,16 +3919,16 @@
         <v>86</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3971,7 +3978,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3986,13 +3993,13 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4003,7 +4010,7 @@
         <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>76</v>
@@ -4028,16 +4035,16 @@
         <v>161</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -4095,27 +4102,27 @@
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4138,13 +4145,13 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4195,7 +4202,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4213,7 +4220,7 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4224,7 +4231,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4250,10 +4257,10 @@
         <v>130</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>157</v>
@@ -4297,7 +4304,7 @@
         <v>133</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>76</v>
@@ -4306,7 +4313,7 @@
         <v>134</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4331,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4335,7 +4342,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4361,16 +4368,16 @@
         <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
@@ -4395,13 +4402,13 @@
         <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4419,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4437,7 +4444,7 @@
         <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4448,7 +4455,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4471,19 +4478,19 @@
         <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
@@ -4508,13 +4515,13 @@
         <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4532,7 +4539,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4547,10 +4554,10 @@
         <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4561,7 +4568,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4587,29 +4594,29 @@
         <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>76</v>
@@ -4645,7 +4652,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4660,13 +4667,13 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
@@ -4674,7 +4681,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4697,16 +4704,16 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4720,7 +4727,7 @@
         <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>76</v>
@@ -4756,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4771,13 +4778,13 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4785,7 +4792,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4808,13 +4815,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4865,7 +4872,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4880,13 +4887,13 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4894,7 +4901,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4917,16 +4924,16 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4976,7 +4983,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4991,13 +4998,13 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5008,7 +5015,7 @@
         <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>76</v>
@@ -5033,16 +5040,16 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -5100,27 +5107,27 @@
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5143,13 +5150,13 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5200,7 +5207,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5225,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5229,7 +5236,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5255,10 +5262,10 @@
         <v>130</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>157</v>
@@ -5302,7 +5309,7 @@
         <v>133</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>76</v>
@@ -5311,7 +5318,7 @@
         <v>134</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5329,7 +5336,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5340,7 +5347,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5366,16 +5373,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>76</v>
@@ -5400,13 +5407,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5424,7 +5431,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5442,7 +5449,7 @@
         <v>128</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5453,7 +5460,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5476,19 +5483,19 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5513,13 +5520,13 @@
         <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>76</v>
@@ -5537,7 +5544,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5552,10 +5559,10 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5566,7 +5573,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5592,29 +5599,29 @@
         <v>99</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>76</v>
@@ -5650,7 +5657,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5665,13 +5672,13 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5679,7 +5686,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5702,16 +5709,16 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5725,7 +5732,7 @@
         <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>76</v>
@@ -5761,7 +5768,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5776,13 +5783,13 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5790,7 +5797,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5813,13 +5820,13 @@
         <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5870,7 +5877,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5885,13 +5892,13 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5899,7 +5906,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5922,16 +5929,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5981,7 +5988,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5996,13 +6003,13 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6010,7 +6017,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6033,70 +6040,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6111,21 +6118,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6148,19 +6155,19 @@
         <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6185,13 +6192,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6209,7 +6216,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6224,21 +6231,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6261,19 +6268,19 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6322,7 +6329,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6331,19 +6338,19 @@
         <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6351,7 +6358,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6374,19 +6381,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6435,7 +6442,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6453,7 +6460,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6464,7 +6471,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6487,19 +6494,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6548,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6557,19 +6564,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6577,7 +6584,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6600,19 +6607,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6661,7 +6668,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6670,19 +6677,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6690,7 +6697,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6713,19 +6720,19 @@
         <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6774,7 +6781,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6789,13 +6796,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6803,7 +6810,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6826,19 +6833,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6887,7 +6894,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6905,7 +6912,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6916,7 +6923,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6939,13 +6946,13 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6996,7 +7003,7 @@
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7014,7 +7021,7 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7025,7 +7032,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7051,10 +7058,10 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>157</v>
@@ -7107,7 +7114,7 @@
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7125,7 +7132,7 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7136,11 +7143,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7162,10 +7169,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7220,7 +7227,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7249,7 +7256,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7272,17 +7279,17 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7307,13 +7314,13 @@
         <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7331,7 +7338,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7349,7 +7356,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7360,7 +7367,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7383,19 +7390,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7444,7 +7451,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7459,13 +7466,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7473,7 +7480,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7496,17 +7503,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7555,7 +7562,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7570,10 +7577,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7584,7 +7591,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7607,17 +7614,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7666,7 +7673,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7681,10 +7688,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7695,7 +7702,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7718,19 +7725,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7779,7 +7786,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7797,7 +7804,7 @@
         <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -843,7 +843,7 @@
   </si>
   <si>
     <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.
-レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザーのために非表示にする必要がある。</t>
+レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザのために非表示にする必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -252,7 +252,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり</t>
+    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
@@ -469,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension</t>
+    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -487,7 +487,7 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension</t>
+    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
@@ -528,7 +528,7 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別</t>
+    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別【詳細参照】</t>
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
@@ -829,7 +829,7 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか</t>
+    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use.
@@ -864,7 +864,7 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization / 組織の種類</t>
+    <t>Kind of organization / 組織の種類【詳細参照】</t>
   </si>
   <si>
     <t>The kind(s) of organization that this is.
@@ -904,7 +904,7 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization / 組織に使用されている名称</t>
+    <t>Name used for the organization / 組織に使用されている名称【詳細参照】</t>
   </si>
   <si>
     <t>A name associated with the organization.
@@ -931,7 +931,7 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト</t>
+    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
   </si>
   <si>
     <t>A list of alternate names that the organization is known as, or was known as in the past.
@@ -955,7 +955,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization / 組織の連絡先詳細</t>
+    <t>A contact detail for the organization / 組織の連絡先詳細【詳細参照】</t>
   </si>
   <si>
     <t>A contact detail for the organization.
@@ -994,7 +994,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization / 組織の住所</t>
+    <t>An address for the organization / 組織の住所【詳細参照】</t>
   </si>
   <si>
     <t>An address for the organization.
@@ -1029,7 +1029,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part</t>
+    <t>The organization of which this organization forms a part【詳細参照】</t>
   </si>
   <si>
     <t>The organization of which this organization forms a part.
@@ -1053,7 +1053,7 @@
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先</t>
+    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先【詳細参照】</t>
   </si>
   <si>
     <t>Contact for the organization for a certain purpose.
@@ -1188,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
+    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
   </si>
   <si>
     <t>Technical endpoints providing access to services operated for the organization.
@@ -1522,7 +1522,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.01171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.61328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -784,7 +784,7 @@
     <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
 systemはFixed Valueの
 ```
-http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no+http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no ```
 を使用する。
 記載の様式(Wikipediaより転載)
@@ -805,7 +805,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no</t>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -454,7 +454,7 @@
 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>都道府県番号２桁。Identifier型の拡張を使用する。
+    <t>都道府県番号２桁。Identifier型の拡張を使用する。  
 valueには都道府県番号2桁の値を格納し、systemには都道府県番号を表すOID「1.2.392.100495.20.3.21」を指定する。</t>
   </si>
   <si>
@@ -469,15 +469,14 @@
 </t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）を表現するExtension【詳細参照】</t>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科1、歯科 3）。Identifier型の拡張
-「OrganizationCategory」を使用する。systemには点数表番号
-を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
+「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
     <t>organizationNo</t>
@@ -487,15 +486,19 @@
 </t>
   </si>
   <si>
-    <t>保険医療機関番号７桁を表現するExtension【詳細参照】</t>
+    <t>医療機関コード（７桁）を表現するExtension【詳細参照】</t>
   </si>
   <si>
     <t>保険医療機関番号７桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
   </si>
   <si>
-    <t>保険医療機関番号７桁。Identifier型の拡張
-「InsuranceOrganizationNo」を使用する。systemには医療機関コードを
-表すOID「1.2.392.100495.20.3.23」を指定する。</t>
+    <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。
+valueには下記の値を格納する。  
+- 保険医療機関・保険薬局 : `医療機関コード（７桁）`
+- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`
+医療機関コードの詳しい説明は、[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。  
+なお上記に該当しない施設は、本拡張は使用しない。</t>
   </si>
   <si>
     <t>Organization.modifierExtension</t>
@@ -535,9 +538,7 @@
 複数の異種システムにまたがって組織を識別するための識別子</t>
   </si>
   <si>
-    <t>もし適切なOID が存在しない場合で、その医療施設が保険医療機関の場合、特定健診・特定保健指導機関のルールに従い以下のルールで設定してもよい。
-医療施設が固有のOID を持っている場合は、そのOID を指定する。医療施設が保険医療機関の場合、特定健診・特定保健指導機関の医療機関コードの OID「1.2.392.200119.6.102.」の末尾に「[1]＋医療機関コード（10 桁）」を指定する。医療機関コードを持たない場合、「[9]＋当該施設の電話番号下 9 桁」を医療機関コードとする。
-例：医療機関コード「1312345670」の場合「1.2.392.200119.6.102.11312345670」</t>
+    <t>福祉医療関連施設と保険者組織はSlicingについてはJP Coreにて定義を行なっているため、定義に従いデータを格納すること。それ以外の組織については、利用する際には必要に応じて識別子を定義を行なうこと。</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
@@ -775,31 +776,15 @@
     <t>medicalInstitutionCode</t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
-  </si>
-  <si>
-    <t>処方箋等の発行医療機関コードを格納するためのIdentifier/Slicing定義。
-systemはFixed Valueの
-```
-http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no-```
-を使用する。
-記載の様式(Wikipediaより転載)
-記載されている10桁の内訳は以下の通りである。
-　・最初の2桁 全国地方公共団体コードの都道府県コード（ISO 3166-2:JP）
-　　・都道府県ごとの番号。
-　・3桁目 点数表番号
-　　・医科は「1」。歯科は「3」。
-　　　・したがって、同一の病院または診療所に医科と歯科が併存する場合にはそれぞれ別のコードが与えられる。
-　　　・そのため、レセプトコンピュータでは一医療機関に対して医科と歯科の両方のコードを設定できるようになっている。
-　　　・ちなみに処方箋は発行されないが、「4」は調剤、「5」は老人保健施設、「6」は訪問看護ステーションである。
-　　・下7桁 医療機関コード
-　　　・地区（2桁）+番号（4桁）+チェックディジット（1桁）で構成される。
-　・7桁の医療機関コードについて
-　　各地域を所管する厚生労働省の地方支分部局である地方厚生局のホームページ等で確認できる。</t>
+    <t>施設が福祉医療関連機関である場合に利用する識別子【詳細参照】</t>
+  </si>
+  <si>
+    <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
+value : ```医療機関コード（１０桁）```を使用する。 
+医療機関コード（１０桁）の詳細は[こちらのリンク](StructureDefinition-jp-organization.html#医療機関コード１０桁)を参照すること。 </t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -813,6 +798,12 @@
   </si>
   <si>
     <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>Identifies this organization  across multiple systems</t>
+  </si>
+  <si>
+    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -5040,13 +5031,13 @@
         <v>161</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>244</v>
@@ -5615,7 +5606,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>76</v>
@@ -6017,7 +6008,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6040,70 +6031,70 @@
         <v>86</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6118,21 +6109,21 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6158,16 +6149,16 @@
         <v>194</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6192,13 +6183,13 @@
         <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>76</v>
@@ -6216,7 +6207,7 @@
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6231,21 +6222,21 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6271,16 +6262,16 @@
         <v>173</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>76</v>
@@ -6329,7 +6320,7 @@
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6344,13 +6335,13 @@
         <v>97</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6358,7 +6349,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6384,16 +6375,16 @@
         <v>173</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>76</v>
@@ -6442,7 +6433,7 @@
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6460,7 +6451,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6471,7 +6462,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6494,19 +6485,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>76</v>
@@ -6555,7 +6546,7 @@
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6564,19 +6555,19 @@
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6584,7 +6575,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6607,19 +6598,19 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>76</v>
@@ -6668,7 +6659,7 @@
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6677,19 +6668,19 @@
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6697,7 +6688,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6723,16 +6714,16 @@
         <v>232</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>76</v>
@@ -6781,7 +6772,7 @@
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6796,10 +6787,10 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>177</v>
@@ -6810,7 +6801,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6833,19 +6824,19 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -6894,7 +6885,7 @@
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6903,7 @@
         <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6923,7 +6914,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7032,7 +7023,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7143,11 +7134,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7169,10 +7160,10 @@
         <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>157</v>
@@ -7227,7 +7218,7 @@
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7256,7 +7247,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7282,14 +7273,14 @@
         <v>194</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>76</v>
@@ -7317,10 +7308,10 @@
         <v>199</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>76</v>
@@ -7338,7 +7329,7 @@
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7356,7 +7347,7 @@
         <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7367,7 +7358,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7390,19 +7381,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>76</v>
@@ -7451,7 +7442,7 @@
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7466,13 +7457,13 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7480,7 +7471,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7503,17 +7494,17 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>76</v>
@@ -7562,7 +7553,7 @@
         <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7577,10 +7568,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7591,7 +7582,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7614,17 +7605,17 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7673,7 +7664,7 @@
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7688,10 +7679,10 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7702,7 +7693,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7725,19 +7716,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>76</v>
@@ -7786,7 +7777,7 @@
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -472,11 +471,10 @@
     <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）を表現するExtension【詳細参照】</t>
   </si>
   <si>
-    <t>点数表コード１桁（医科１、歯科３）表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
-  </si>
-  <si>
-    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。Identifier型の拡張  
-「OrganizationCategory」を使用する。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
+    <t>点数表コード１桁を表現するためのExtension。 JP Core Organizationプロファイルで利用されることを想定しているが、他のリソースでも利用可能である</t>
+  </si>
+  <si>
+    <t>点数表コード１桁（医科１、非保険検診施設２、歯科３、調剤４、訪問看護ステーション６）。systemには点数表番号を表すOID「1.2.392.100495.20.3.22」を指定する。</t>
   </si>
   <si>
     <t>organizationNo</t>
@@ -1436,55 +1434,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1546,218 +1544,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1766,10 +1764,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1778,20 +1776,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>86</v>
@@ -1810,77 +1808,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1889,20 +1887,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>86</v>
@@ -1919,77 +1917,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1998,17 +1996,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>86</v>
@@ -2030,77 +2028,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2109,23 +2107,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>105</v>
@@ -2141,26 +2139,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>109</v>
@@ -2172,46 +2170,46 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2224,19 +2222,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>115</v>
@@ -2252,77 +2250,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2335,19 +2333,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>123</v>
@@ -2363,77 +2361,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2442,23 +2440,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>130</v>
@@ -2472,45 +2470,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>134</v>
@@ -2519,28 +2517,28 @@
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2551,23 +2549,23 @@
         <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>138</v>
@@ -2583,59 +2581,59 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2644,16 +2642,16 @@
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2664,23 +2662,23 @@
         <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>144</v>
@@ -2696,59 +2694,59 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>142</v>
@@ -2757,16 +2755,16 @@
         <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2777,23 +2775,23 @@
         <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>149</v>
@@ -2809,59 +2807,59 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>142</v>
@@ -2870,16 +2868,16 @@
         <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -2892,19 +2890,19 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>130</v>
@@ -2922,77 +2920,77 @@
         <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3001,20 +2999,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>86</v>
@@ -3035,45 +3033,45 @@
         <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>134</v>
@@ -3082,10 +3080,10 @@
         <v>160</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>167</v>
@@ -3112,23 +3110,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -3142,77 +3140,77 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3225,19 +3223,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>130</v>
@@ -3253,38 +3251,38 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>133</v>
@@ -3293,7 +3291,7 @@
         <v>181</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>134</v>
@@ -3302,28 +3300,28 @@
         <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3332,17 +3330,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>86</v>
@@ -3366,26 +3364,26 @@
         <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>188</v>
@@ -3397,31 +3395,31 @@
         <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>97</v>
@@ -3433,10 +3431,10 @@
         <v>192</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3445,20 +3443,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>86</v>
@@ -3479,26 +3477,26 @@
         <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>199</v>
@@ -3510,31 +3508,31 @@
         <v>201</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>97</v>
@@ -3546,10 +3544,10 @@
         <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3558,20 +3556,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>86</v>
@@ -3592,62 +3590,62 @@
         <v>208</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>97</v>
@@ -3662,7 +3660,7 @@
         <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3671,20 +3669,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>86</v>
@@ -3703,62 +3701,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>97</v>
@@ -3773,7 +3771,7 @@
         <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3782,20 +3780,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>86</v>
@@ -3812,62 +3810,62 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>97</v>
@@ -3882,7 +3880,7 @@
         <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3891,20 +3889,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>86</v>
@@ -3923,62 +3921,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -3993,7 +3991,7 @@
         <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4004,20 +4002,20 @@
         <v>240</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>86</v>
@@ -4038,59 +4036,59 @@
         <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>167</v>
@@ -4117,23 +4115,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>173</v>
@@ -4147,77 +4145,77 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4230,19 +4228,19 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>130</v>
@@ -4258,38 +4256,38 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>133</v>
@@ -4298,7 +4296,7 @@
         <v>181</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>134</v>
@@ -4307,28 +4305,28 @@
         <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4337,17 +4335,17 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>86</v>
@@ -4371,26 +4369,26 @@
         <v>187</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>188</v>
@@ -4402,31 +4400,31 @@
         <v>190</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>97</v>
@@ -4438,10 +4436,10 @@
         <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4450,20 +4448,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>86</v>
@@ -4484,26 +4482,26 @@
         <v>198</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>199</v>
@@ -4515,31 +4513,31 @@
         <v>201</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>97</v>
@@ -4551,10 +4549,10 @@
         <v>192</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4563,7 +4561,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4573,10 +4571,10 @@
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>86</v>
@@ -4597,62 +4595,62 @@
         <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>245</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>97</v>
@@ -4667,7 +4665,7 @@
         <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4676,20 +4674,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>86</v>
@@ -4708,62 +4706,62 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>97</v>
@@ -4778,7 +4776,7 @@
         <v>222</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -4787,20 +4785,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>86</v>
@@ -4817,62 +4815,62 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
@@ -4887,7 +4885,7 @@
         <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4896,20 +4894,20 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>86</v>
@@ -4928,62 +4926,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>97</v>
@@ -4998,7 +4996,7 @@
         <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -5009,20 +5007,20 @@
         <v>247</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>86</v>
@@ -5043,59 +5041,59 @@
         <v>244</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>160</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>167</v>
@@ -5122,23 +5120,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>173</v>
@@ -5152,77 +5150,77 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5235,19 +5233,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>130</v>
@@ -5263,38 +5261,38 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>133</v>
@@ -5303,7 +5301,7 @@
         <v>181</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>134</v>
@@ -5312,28 +5310,28 @@
         <v>182</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5342,17 +5340,17 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>86</v>
@@ -5376,26 +5374,26 @@
         <v>187</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>188</v>
@@ -5407,31 +5405,31 @@
         <v>190</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
@@ -5443,10 +5441,10 @@
         <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5455,20 +5453,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>86</v>
@@ -5489,26 +5487,26 @@
         <v>198</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>199</v>
@@ -5520,31 +5518,31 @@
         <v>201</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>97</v>
@@ -5556,10 +5554,10 @@
         <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -5568,7 +5566,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5578,10 +5576,10 @@
         <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>86</v>
@@ -5602,62 +5600,62 @@
         <v>208</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>251</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>209</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>97</v>
@@ -5672,7 +5670,7 @@
         <v>213</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -5681,20 +5679,20 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>86</v>
@@ -5713,62 +5711,62 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>218</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>97</v>
@@ -5783,7 +5781,7 @@
         <v>222</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -5792,20 +5790,20 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>86</v>
@@ -5822,62 +5820,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>97</v>
@@ -5892,7 +5890,7 @@
         <v>230</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -5901,20 +5899,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>86</v>
@@ -5933,62 +5931,62 @@
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>97</v>
@@ -6003,7 +6001,7 @@
         <v>239</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6012,17 +6010,17 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>86</v>
@@ -6046,64 +6044,64 @@
         <v>257</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>258</v>
       </c>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>252</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>97</v>
@@ -6127,20 +6125,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>86</v>
@@ -6161,26 +6159,26 @@
         <v>267</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>268</v>
@@ -6192,31 +6190,31 @@
         <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>263</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>97</v>
@@ -6240,20 +6238,20 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>86</v>
@@ -6274,56 +6272,56 @@
         <v>278</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>85</v>
@@ -6344,7 +6342,7 @@
         <v>281</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -6353,23 +6351,23 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>173</v>
@@ -6387,77 +6385,77 @@
         <v>286</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6466,23 +6464,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>288</v>
@@ -6500,59 +6498,59 @@
         <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>293</v>
@@ -6570,7 +6568,7 @@
         <v>297</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
@@ -6579,23 +6577,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>299</v>
@@ -6613,59 +6611,59 @@
         <v>303</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>304</v>
@@ -6683,7 +6681,7 @@
         <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
@@ -6692,20 +6690,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>86</v>
@@ -6726,62 +6724,62 @@
         <v>313</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>97</v>
@@ -6796,7 +6794,7 @@
         <v>177</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
@@ -6805,23 +6803,23 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>316</v>
@@ -6839,77 +6837,77 @@
         <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
@@ -6918,23 +6916,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>173</v>
@@ -6948,77 +6946,77 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -7031,19 +7029,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>130</v>
@@ -7059,77 +7057,77 @@
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7142,13 +7140,13 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>86</v>
@@ -7172,77 +7170,77 @@
         <v>158</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>328</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7251,23 +7249,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>194</v>
@@ -7283,26 +7281,26 @@
         <v>332</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>199</v>
@@ -7314,46 +7312,46 @@
         <v>334</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
@@ -7362,23 +7360,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>337</v>
@@ -7396,56 +7394,56 @@
         <v>341</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>85</v>
@@ -7466,7 +7464,7 @@
         <v>344</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -7475,23 +7473,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>288</v>
@@ -7507,62 +7505,62 @@
         <v>348</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>345</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>97</v>
@@ -7574,10 +7572,10 @@
         <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55">
@@ -7586,23 +7584,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>299</v>
@@ -7618,62 +7616,62 @@
         <v>354</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>97</v>
@@ -7685,10 +7683,10 @@
         <v>356</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -7697,23 +7695,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>358</v>
@@ -7731,77 +7729,77 @@
         <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -795,7 +795,7 @@
     <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
   </si>
   <si>
-    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/Common/IdSystem/insurance-medical-institution-no```を使用する。　
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no```を使用する。　
 value : ```医療機関コード（１０桁）```を使用する。 
 医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。 </t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="385">
   <si>
     <t>Property</t>
   </si>
@@ -256,6 +256,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
@@ -1758,13 +1762,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1830,10 +1834,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>31</v>
@@ -1844,10 +1848,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1858,7 +1862,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -1867,19 +1871,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1929,13 +1933,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1958,10 +1962,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1972,7 +1976,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -1981,16 +1985,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2041,19 +2045,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2070,10 +2074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2084,28 +2088,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2155,19 +2159,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2184,10 +2188,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2198,7 +2202,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2210,16 +2214,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2245,13 +2249,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2269,19 +2273,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2298,21 +2302,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2324,16 +2328,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2383,25 +2387,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2412,14 +2416,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2438,16 +2442,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2497,7 +2501,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2515,7 +2519,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2526,10 +2530,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2552,13 +2556,13 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2597,17 +2601,17 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2619,7 +2623,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2636,13 +2640,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
@@ -2652,7 +2656,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2664,16 +2668,16 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2723,7 +2727,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2732,10 +2736,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2752,13 +2756,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2768,7 +2772,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2780,16 +2784,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2839,7 +2843,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2848,10 +2852,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2868,13 +2872,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2884,7 +2888,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2896,16 +2900,16 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2955,7 +2959,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2964,10 +2968,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2984,14 +2988,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3004,25 +3008,25 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3071,7 +3075,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3083,13 +3087,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3100,10 +3104,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3123,22 +3127,22 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3175,17 +3179,17 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3194,30 +3198,30 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3228,7 +3232,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3240,13 +3244,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3297,13 +3301,13 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
@@ -3315,7 +3319,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3326,14 +3330,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3352,16 +3356,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3399,19 +3403,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3423,13 +3427,13 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3440,10 +3444,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3454,31 +3458,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3503,13 +3507,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3527,25 +3531,25 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3556,10 +3560,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3570,7 +3574,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3579,22 +3583,22 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3619,13 +3623,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3643,25 +3647,25 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3672,10 +3676,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3686,7 +3690,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3695,22 +3699,22 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3723,7 +3727,7 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -3759,28 +3763,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3788,10 +3792,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3802,7 +3806,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -3811,19 +3815,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3837,7 +3841,7 @@
         <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>78</v>
@@ -3873,28 +3877,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3902,10 +3906,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3916,7 +3920,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3925,16 +3929,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3985,28 +3989,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4014,10 +4018,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4028,7 +4032,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4037,19 +4041,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4099,28 +4103,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4128,13 +4132,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4153,22 +4157,22 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4217,7 +4221,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4226,30 +4230,30 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4260,7 +4264,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4272,13 +4276,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4329,13 +4333,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4347,7 +4351,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4358,14 +4362,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4384,16 +4388,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4431,19 +4435,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4455,13 +4459,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4472,10 +4476,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4486,31 +4490,31 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4535,13 +4539,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4559,25 +4563,25 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4588,10 +4592,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4602,7 +4606,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4611,22 +4615,22 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4651,13 +4655,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4675,25 +4679,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4704,10 +4708,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4715,10 +4719,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4727,35 +4731,35 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4791,28 +4795,28 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4820,10 +4824,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4834,7 +4838,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4843,19 +4847,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4869,7 +4873,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -4905,28 +4909,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4934,10 +4938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4948,7 +4952,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -4957,16 +4961,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5017,28 +5021,28 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5046,10 +5050,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5060,7 +5064,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5069,19 +5073,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5131,28 +5135,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5160,13 +5164,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
@@ -5185,22 +5189,22 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5249,7 +5253,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5258,30 +5262,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5292,7 +5296,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5304,13 +5308,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5361,13 +5365,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5379,7 +5383,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5390,14 +5394,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5416,16 +5420,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5463,19 +5467,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5487,13 +5491,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5504,10 +5508,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5518,31 +5522,31 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5567,13 +5571,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5591,25 +5595,25 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5620,10 +5624,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5634,7 +5638,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5643,22 +5647,22 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5683,13 +5687,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5707,25 +5711,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5736,10 +5740,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5747,10 +5751,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5759,35 +5763,35 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5823,28 +5827,28 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5852,10 +5856,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5866,7 +5870,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5875,19 +5879,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5901,7 +5905,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -5937,28 +5941,28 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -5966,10 +5970,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5980,7 +5984,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5989,16 +5993,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6049,28 +6053,28 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6078,10 +6082,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6092,7 +6096,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6101,19 +6105,19 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6163,28 +6167,28 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6192,10 +6196,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6206,114 +6210,114 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6333,22 +6337,22 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6373,13 +6377,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6397,7 +6401,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6409,27 +6413,27 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6440,7 +6444,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6449,22 +6453,22 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6513,28 +6517,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6542,10 +6546,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6568,19 +6572,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6629,7 +6633,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6641,13 +6645,13 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6658,10 +6662,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6684,19 +6688,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6754,19 +6758,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6778,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6800,19 +6804,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6865,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6870,19 +6874,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -6890,10 +6894,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6904,7 +6908,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6913,22 +6917,22 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6977,28 +6981,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7006,10 +7010,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7032,19 +7036,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7093,7 +7097,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7105,13 +7109,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7122,10 +7126,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7136,7 +7140,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7148,13 +7152,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7205,13 +7209,13 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
@@ -7223,7 +7227,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7234,14 +7238,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7260,16 +7264,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7319,7 +7323,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7331,13 +7335,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7348,14 +7352,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7368,25 +7372,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7435,7 +7439,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7447,13 +7451,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7464,10 +7468,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7478,7 +7482,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7490,17 +7494,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7525,13 +7529,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7549,25 +7553,25 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7578,10 +7582,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7592,7 +7596,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7604,19 +7608,19 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7665,28 +7669,28 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7694,10 +7698,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7720,17 +7724,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7779,7 +7783,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7791,13 +7795,13 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7808,10 +7812,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7822,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7834,17 +7838,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7893,25 +7897,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7922,10 +7926,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7948,19 +7952,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8009,7 +8013,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8021,13 +8025,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -256,10 +256,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
@@ -1762,13 +1758,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1834,10 +1830,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>31</v>
@@ -1848,10 +1844,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1862,28 +1858,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1933,13 +1929,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -1962,10 +1958,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1976,25 +1972,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2045,19 +2041,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2074,10 +2070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2088,28 +2084,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2159,19 +2155,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2188,10 +2184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2202,7 +2198,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2214,16 +2210,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2249,43 +2245,43 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2302,21 +2298,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2328,16 +2324,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2387,25 +2383,25 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2416,14 +2412,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2442,16 +2438,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2501,7 +2497,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2519,7 +2515,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2530,10 +2526,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2556,13 +2552,13 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2601,17 +2597,17 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2623,7 +2619,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2640,13 +2636,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
@@ -2656,7 +2652,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2668,16 +2664,16 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2727,7 +2723,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2736,10 +2732,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2756,13 +2752,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2772,7 +2768,7 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2784,16 +2780,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2843,7 +2839,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2852,10 +2848,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2872,13 +2868,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2888,7 +2884,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -2900,16 +2896,16 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2959,7 +2955,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -2968,10 +2964,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2988,14 +2984,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3008,25 +3004,25 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3075,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3087,13 +3083,13 @@
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3104,10 +3100,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3127,22 +3123,22 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3179,17 +3175,17 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3198,30 +3194,30 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3232,7 +3228,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3244,13 +3240,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3301,25 +3297,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3330,14 +3326,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3356,16 +3352,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3403,19 +3399,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3427,13 +3423,13 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3444,10 +3440,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3458,31 +3454,31 @@
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3507,49 +3503,49 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3560,10 +3556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3574,31 +3570,31 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3623,49 +3619,49 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z18" t="s" s="2">
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3676,10 +3672,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3690,31 +3686,31 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3727,64 +3723,64 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3792,10 +3788,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3806,28 +3802,28 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3841,64 +3837,64 @@
         <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="U20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3906,10 +3902,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3920,25 +3916,25 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3989,28 +3985,28 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4018,10 +4014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4032,28 +4028,28 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4103,28 +4099,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4132,13 +4128,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4157,22 +4153,22 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4217,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4230,30 +4226,30 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4264,7 +4260,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4276,13 +4272,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4333,25 +4329,25 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4362,14 +4358,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4388,16 +4384,16 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4435,19 +4431,19 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AC25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4459,13 +4455,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4476,10 +4472,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4490,31 +4486,31 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4539,49 +4535,49 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4592,10 +4588,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4606,31 +4602,31 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K27" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4655,49 +4651,49 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL27" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4708,10 +4704,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4719,104 +4715,104 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4824,10 +4820,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4838,28 +4834,28 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4873,64 +4869,64 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4938,10 +4934,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4952,25 +4948,25 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5021,28 +5017,28 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5050,10 +5046,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5064,28 +5060,28 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5135,28 +5131,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5164,13 +5160,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
@@ -5189,22 +5185,22 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
-      </c>
       <c r="O32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5253,7 +5249,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5262,30 +5258,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5296,7 +5292,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5308,13 +5304,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5365,25 +5361,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5394,14 +5390,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5420,16 +5416,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N34" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5467,19 +5463,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AC34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5487,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5508,10 +5504,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5522,31 +5518,31 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5571,49 +5567,49 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5624,10 +5620,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5638,31 +5634,31 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5687,49 +5683,49 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
+      <c r="AG36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AL36" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5740,10 +5736,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5751,104 +5747,104 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF37" t="s" s="2">
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5856,10 +5852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5870,28 +5866,28 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5905,64 +5901,64 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF38" t="s" s="2">
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -5970,10 +5966,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5984,25 +5980,25 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6053,28 +6049,28 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6082,10 +6078,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6096,28 +6092,28 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6167,28 +6163,28 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6192,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6210,114 +6206,114 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6337,22 +6333,22 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6377,14 +6373,14 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6413,27 +6409,27 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6444,31 +6440,31 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6517,28 +6513,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6546,10 +6542,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6572,19 +6568,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6633,7 +6629,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6645,13 +6641,13 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6662,10 +6658,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6688,19 +6684,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6749,7 +6745,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6758,19 +6754,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6778,10 +6774,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6804,19 +6800,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6865,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6874,19 +6870,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AJ46" t="s" s="2">
+      <c r="AK46" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -6894,10 +6890,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6908,31 +6904,31 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6981,28 +6977,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7010,10 +7006,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7036,19 +7032,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7097,7 +7093,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7109,13 +7105,13 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7126,10 +7122,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7140,7 +7136,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7152,13 +7148,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7209,25 +7205,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7238,14 +7234,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7264,16 +7260,16 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7323,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7335,13 +7331,13 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7352,14 +7348,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7372,25 +7368,25 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="N51" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7439,7 +7435,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7451,13 +7447,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7468,10 +7464,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7482,7 +7478,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7494,17 +7490,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7529,49 +7525,49 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7582,10 +7578,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7596,7 +7592,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7608,19 +7604,19 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7669,28 +7665,28 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7698,10 +7694,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7724,17 +7720,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7783,7 +7779,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7795,13 +7791,13 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7812,10 +7808,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7826,7 +7822,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7838,17 +7834,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7897,25 +7893,25 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7926,10 +7922,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7952,19 +7948,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O56" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8013,7 +8009,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8025,13 +8021,13 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -288,13 +288,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -307,16 +307,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -327,13 +327,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -346,19 +346,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -378,13 +378,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -404,13 +404,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -442,8 +442,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:prefectureNo</t>
@@ -469,6 +469,10 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:organizationCategory</t>
@@ -522,14 +526,13 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -586,10 +589,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -601,10 +604,13 @@
     <t>Organization.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -616,28 +622,32 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Role.code or implied by context</t>
@@ -650,22 +660,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -680,16 +690,16 @@
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -710,13 +720,13 @@
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -741,10 +751,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -766,13 +776,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -844,10 +854,10 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>「この組織を複数のシステムで識別する」</t>
+  </si>
+  <si>
+    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -945,7 +955,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Used to categorize the organization.</t>
+    <t>「組織を分類するために使用されます。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -1033,8 +1043,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+org-3:組織のテレコムは、家庭で使用することはできません。 {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-22?</t>
@@ -1072,8 +1082,8 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+org-2:組織の住所は「家」として使用することはできません。 (Soshiki no juusho wa "ie" to shite shiyō suru koto wa dekimasen.) {where(use = 'home').empty()}</t>
   </si>
   <si>
     <t>ORC-23?</t>
@@ -1133,7 +1143,19 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
     <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -1143,11 +1165,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1156,16 +1178,16 @@
     <t>Organization.contact.purpose</t>
   </si>
   <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
+    <t>"接触の種類" (Sesshoku no shurui)</t>
+  </si>
+  <si>
+    <t>「連絡先に到達できる目的を示しています。」</t>
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
   </si>
   <si>
-    <t>The purpose for which you would contact a contact party.</t>
+    <t>「連絡を取りたい目的のための連絡先」となります。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
@@ -1207,10 +1229,10 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+    <t>「連絡先詳細（電話、メールなど）連絡先のため」</t>
+  </si>
+  <si>
+    <t>当該のパーティーと連絡を取るための連絡先情報（例：電話番号やメールアドレス）</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
@@ -1225,10 +1247,10 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
+    <t>「連絡のための訪問先または郵送先の住所」</t>
+  </si>
+  <si>
+    <t>「連絡先の訪問または郵便送付先」</t>
   </si>
   <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
@@ -1595,7 +1617,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2739,7 +2761,7 @@
         <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2756,13 +2778,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
@@ -2784,16 +2806,16 @@
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2855,7 +2877,7 @@
         <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2872,13 +2894,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>131</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
@@ -2900,16 +2922,16 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2971,7 +2993,7 @@
         <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -2988,14 +3010,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3017,16 +3039,16 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3075,7 +3097,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3104,10 +3126,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3130,19 +3152,19 @@
         <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3179,7 +3201,7 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
@@ -3189,7 +3211,7 @@
         <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3198,30 +3220,30 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3244,13 +3266,13 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3301,7 +3323,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3319,7 +3341,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3330,14 +3352,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3359,13 +3381,13 @@
         <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3406,7 +3428,7 @@
         <v>135</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
@@ -3415,7 +3437,7 @@
         <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3427,13 +3449,13 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3444,10 +3466,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3473,16 +3495,16 @@
         <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3507,13 +3529,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3531,7 +3553,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3543,13 +3565,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3560,10 +3582,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3586,19 +3608,19 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3623,13 +3645,13 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -3647,7 +3669,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3659,13 +3681,13 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3676,10 +3698,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3705,16 +3727,16 @@
         <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
@@ -3727,7 +3749,7 @@
         <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>78</v>
@@ -3763,7 +3785,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3775,16 +3797,16 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3792,10 +3814,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3818,16 +3840,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3841,7 +3863,7 @@
         <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="U20" t="s" s="2">
         <v>78</v>
@@ -3877,7 +3899,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3889,16 +3911,16 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -3906,10 +3928,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3932,13 +3954,13 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3989,7 +4011,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4001,16 +4023,16 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4018,10 +4040,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4044,16 +4066,16 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4103,7 +4125,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4115,16 +4137,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4132,13 +4154,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4160,19 +4182,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4221,7 +4243,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4230,30 +4252,30 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4276,13 +4298,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4333,7 +4355,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4351,7 +4373,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4362,14 +4384,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4391,13 +4413,13 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4438,7 +4460,7 @@
         <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
@@ -4447,7 +4469,7 @@
         <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4459,13 +4481,13 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4476,10 +4498,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4505,16 +4527,16 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4539,13 +4561,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4563,7 +4585,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4575,13 +4597,13 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4592,10 +4614,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4618,19 +4640,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4655,13 +4677,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4679,7 +4701,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4691,13 +4713,13 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4708,10 +4730,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4737,29 +4759,29 @@
         <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>78</v>
@@ -4795,7 +4817,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4807,16 +4829,16 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -4824,10 +4846,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4850,16 +4872,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4873,7 +4895,7 @@
         <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>78</v>
@@ -4909,7 +4931,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -4921,16 +4943,16 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4938,10 +4960,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4964,13 +4986,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5021,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5033,16 +5055,16 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5050,10 +5072,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5076,16 +5098,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5135,7 +5157,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5147,16 +5169,16 @@
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5164,13 +5186,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
@@ -5192,19 +5214,19 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5253,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5262,30 +5284,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5308,13 +5330,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5365,7 +5387,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5383,7 +5405,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5394,14 +5416,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5423,13 +5445,13 @@
         <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5470,7 +5492,7 @@
         <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
@@ -5479,7 +5501,7 @@
         <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5491,13 +5513,13 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5508,10 +5530,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5537,16 +5559,16 @@
         <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5571,13 +5593,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5595,7 +5617,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5607,13 +5629,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5624,10 +5646,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5650,19 +5672,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5687,13 +5709,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5711,7 +5733,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5723,13 +5745,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5740,10 +5762,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5769,29 +5791,29 @@
         <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5827,7 +5849,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5839,16 +5861,16 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5856,10 +5878,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5882,16 +5904,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5905,7 +5927,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -5941,7 +5963,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -5953,16 +5975,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -5970,10 +5992,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5996,13 +6018,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6053,7 +6075,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6065,16 +6087,16 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6082,10 +6104,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6108,16 +6130,16 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6167,7 +6189,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6179,16 +6201,16 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6218,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6222,70 +6244,70 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6300,24 +6322,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6340,19 +6362,19 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6377,13 +6399,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6401,7 +6423,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6416,24 +6438,24 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6456,19 +6478,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6517,7 +6539,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6526,19 +6548,19 @@
         <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6546,10 +6568,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6572,19 +6594,19 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6633,7 +6655,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6651,7 +6673,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6662,10 +6684,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6688,19 +6710,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6749,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6758,19 +6780,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6778,10 +6800,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6804,19 +6826,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6865,7 +6887,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6874,19 +6896,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -6894,10 +6916,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6920,19 +6942,19 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6981,7 +7003,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -6996,13 +7018,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7010,10 +7032,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7036,19 +7058,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7097,7 +7119,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7115,7 +7137,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7126,10 +7148,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7152,13 +7174,13 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>180</v>
+        <v>350</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7209,7 +7231,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7227,7 +7249,7 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7238,14 +7260,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7267,13 +7289,13 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>184</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>185</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7323,7 +7345,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7341,7 +7363,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7352,14 +7374,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7381,16 +7403,16 @@
         <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7439,7 +7461,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7468,10 +7490,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7494,17 +7516,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7529,13 +7551,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7553,7 +7575,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7571,7 +7593,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7582,10 +7604,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7608,19 +7630,19 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7669,7 +7691,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7681,16 +7703,16 @@
         <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7698,10 +7720,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7724,17 +7746,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7783,7 +7805,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7798,10 +7820,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7812,10 +7834,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7838,17 +7860,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7897,7 +7919,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -7912,10 +7934,10 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7926,10 +7948,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7952,19 +7974,19 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8013,7 +8035,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8031,7 +8053,7 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: ServD</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1399,10 +1279,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1597,11 +1477,10 @@
     <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.2421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1613,4595 +1492,4591 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AM1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>247</v>
+        <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>174</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>177</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>245</v>
@@ -6213,1853 +6088,1735 @@
         <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>279</v>
+        <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>294</v>
+        <v>38</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>325</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>332</v>
+        <v>245</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>139</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>347</v>
+        <v>143</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>179</v>
+        <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>355</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>363</v>
+        <v>38</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>374</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>385</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="392">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: ServD</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1279,10 +1399,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1464,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1477,10 +1597,11 @@
     <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.2421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="106.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1492,4591 +1613,4595 @@
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>38</v>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>274</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O40" t="s" s="2">
         <v>243</v>
       </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>245</v>
@@ -6088,1735 +6213,1853 @@
         <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>279</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q41" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="R41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>38</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>280</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>143</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>123</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>189</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>38</v>
+        <v>355</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>327</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>38</v>
+        <v>363</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>38</v>
+        <v>364</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>199</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>143</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -582,9 +582,6 @@
     <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -607,9 +604,6 @@
   </si>
   <si>
     <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -1491,7 +1485,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -3506,43 +3500,43 @@
         <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3557,13 +3551,13 @@
         <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3571,10 +3565,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3600,13 +3594,13 @@
         <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3620,7 +3614,7 @@
         <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>38</v>
@@ -3656,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3671,13 +3665,13 @@
         <v>159</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3685,10 +3679,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3711,13 +3705,13 @@
         <v>48</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3768,7 +3762,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3783,13 +3777,13 @@
         <v>159</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3797,10 +3791,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3823,16 +3817,16 @@
         <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3882,7 +3876,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3897,13 +3891,13 @@
         <v>159</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3911,13 +3905,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -3942,16 +3936,16 @@
         <v>127</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4029,7 +4023,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>138</v>
@@ -4141,7 +4135,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>144</v>
@@ -4255,7 +4249,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>150</v>
@@ -4371,7 +4365,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>161</v>
@@ -4487,7 +4481,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>172</v>
@@ -4532,49 +4526,49 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4589,13 +4583,13 @@
         <v>159</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4603,10 +4597,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4632,13 +4626,13 @@
         <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4652,7 +4646,7 @@
         <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>38</v>
@@ -4688,7 +4682,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4703,13 +4697,13 @@
         <v>159</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4717,10 +4711,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4743,13 +4737,13 @@
         <v>48</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4800,7 +4794,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4815,13 +4809,13 @@
         <v>159</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4829,10 +4823,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4855,16 +4849,16 @@
         <v>48</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4914,7 +4908,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4929,13 +4923,13 @@
         <v>159</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4943,13 +4937,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>126</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -4974,16 +4968,16 @@
         <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5061,7 +5055,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>138</v>
@@ -5173,7 +5167,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>144</v>
@@ -5287,7 +5281,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>150</v>
@@ -5403,7 +5397,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>161</v>
@@ -5519,7 +5513,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>172</v>
@@ -5564,49 +5558,49 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5621,13 +5615,13 @@
         <v>159</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5635,10 +5629,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5664,13 +5658,13 @@
         <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5684,7 +5678,7 @@
         <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>38</v>
@@ -5720,7 +5714,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5735,13 +5729,13 @@
         <v>159</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5749,10 +5743,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5775,13 +5769,13 @@
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5832,7 +5826,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5847,13 +5841,13 @@
         <v>159</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5861,10 +5855,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5887,16 +5881,16 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5946,7 +5940,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5961,13 +5955,13 @@
         <v>159</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -5975,10 +5969,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6001,26 +5995,26 @@
         <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="R40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6079,24 +6073,24 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6122,16 +6116,16 @@
         <v>162</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6156,14 +6150,14 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6180,7 +6174,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6195,24 +6189,24 @@
         <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6238,16 +6232,16 @@
         <v>139</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6296,7 +6290,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6311,13 +6305,13 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6325,10 +6319,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6354,16 +6348,16 @@
         <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6412,7 +6406,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6430,7 +6424,7 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6441,10 +6435,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6467,19 +6461,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6528,7 +6522,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6537,19 +6531,19 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6557,10 +6551,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6583,19 +6577,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6644,7 +6638,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6653,19 +6647,19 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6673,10 +6667,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6699,19 +6693,19 @@
         <v>48</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -6760,7 +6754,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6775,10 +6769,10 @@
         <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>143</v>
@@ -6789,10 +6783,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6815,19 +6809,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -6876,7 +6870,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6894,7 +6888,7 @@
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -6905,10 +6899,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6934,10 +6928,10 @@
         <v>139</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7017,10 +7011,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7046,10 +7040,10 @@
         <v>92</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>123</v>
@@ -7131,14 +7125,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7160,10 +7154,10 @@
         <v>92</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>123</v>
@@ -7218,7 +7212,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7247,10 +7241,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7276,14 +7270,14 @@
         <v>162</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7311,10 +7305,10 @@
         <v>167</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7332,7 +7326,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7350,7 +7344,7 @@
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7361,10 +7355,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7387,19 +7381,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7448,7 +7442,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7463,13 +7457,13 @@
         <v>159</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7477,10 +7471,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7503,17 +7497,17 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7562,7 +7556,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7577,10 +7571,10 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7591,10 +7585,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7617,17 +7611,17 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7676,7 +7670,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7691,10 +7685,10 @@
         <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7705,10 +7699,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7731,19 +7725,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7792,7 +7786,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
 集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}org-1:「組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません」 {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -1604,13 +1608,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>31</v>
@@ -1621,10 +1625,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1635,7 +1639,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1644,19 +1648,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1706,13 +1710,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1735,10 +1739,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1749,7 +1753,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1758,16 +1762,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1818,19 +1822,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1847,10 +1851,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1861,28 +1865,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1932,19 +1936,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1961,10 +1965,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1975,7 +1979,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1987,16 +1991,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2022,13 +2026,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2046,19 +2050,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2075,21 +2079,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2101,16 +2105,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2160,25 +2164,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2189,14 +2193,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2215,16 +2219,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2274,7 +2278,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2292,7 +2296,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2303,10 +2307,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2329,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2374,17 +2378,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2396,7 +2400,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2413,13 +2417,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2429,7 +2433,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2441,16 +2445,16 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2500,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2509,10 +2513,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2529,13 +2533,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2545,7 +2549,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2557,16 +2561,16 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2616,7 +2620,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2625,10 +2629,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2645,13 +2649,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2661,7 +2665,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2673,16 +2677,16 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2732,7 +2736,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2741,10 +2745,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2761,14 +2765,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2781,25 +2785,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -2848,7 +2852,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -2860,13 +2864,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -2877,10 +2881,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2900,22 +2904,22 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -2952,17 +2956,17 @@
         <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2971,30 +2975,30 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3005,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -3017,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3074,13 +3078,13 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
@@ -3092,7 +3096,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3103,14 +3107,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3129,16 +3133,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3176,19 +3180,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3200,13 +3204,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3217,10 +3221,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3231,31 +3235,31 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3280,13 +3284,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3304,25 +3308,25 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3333,10 +3337,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3347,7 +3351,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3356,22 +3360,22 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3396,13 +3400,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -3420,25 +3424,25 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3449,10 +3453,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3463,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3472,22 +3476,22 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3536,28 +3540,28 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3565,10 +3569,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3579,7 +3583,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3588,19 +3592,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3650,28 +3654,28 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3679,10 +3683,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3693,7 +3697,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3702,16 +3706,16 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3762,28 +3766,28 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3791,10 +3795,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3805,7 +3809,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3814,19 +3818,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3876,28 +3880,28 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3905,13 +3909,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -3930,22 +3934,22 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -3994,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4003,30 +4007,30 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4037,7 +4041,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4049,13 +4053,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4106,13 +4110,13 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
@@ -4124,7 +4128,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4135,14 +4139,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4161,16 +4165,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4208,19 +4212,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4232,13 +4236,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4249,10 +4253,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4263,31 +4267,31 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4312,13 +4316,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4336,25 +4340,25 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4365,10 +4369,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4379,7 +4383,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4388,22 +4392,22 @@
         <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4428,13 +4432,13 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>38</v>
@@ -4452,25 +4456,25 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4481,10 +4485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4492,10 +4496,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4504,29 +4508,29 @@
         <v>38</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4568,28 +4572,28 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4597,10 +4601,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4611,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4620,19 +4624,19 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4682,28 +4686,28 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4711,10 +4715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4725,7 +4729,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4734,16 +4738,16 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4794,28 +4798,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4823,10 +4827,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4837,7 +4841,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4846,19 +4850,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4908,28 +4912,28 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4937,13 +4941,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -4962,22 +4966,22 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5026,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5035,30 +5039,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5069,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5081,13 +5085,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5138,13 +5142,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5156,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5167,14 +5171,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5193,16 +5197,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5240,19 +5244,19 @@
         <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5264,13 +5268,13 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5281,10 +5285,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5295,31 +5299,31 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5344,13 +5348,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5368,25 +5372,25 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5397,10 +5401,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5411,7 +5415,7 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
@@ -5420,22 +5424,22 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5460,13 +5464,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5484,25 +5488,25 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5513,10 +5517,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5524,10 +5528,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -5536,29 +5540,29 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -5600,28 +5604,28 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5629,10 +5633,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5643,7 +5647,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5652,19 +5656,19 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5714,28 +5718,28 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5743,10 +5747,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5757,7 +5761,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5766,16 +5770,16 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5826,28 +5830,28 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5855,10 +5859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5869,7 +5873,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5878,19 +5882,19 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5940,28 +5944,28 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -5969,10 +5973,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5983,114 +5987,114 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="J40" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6110,22 +6114,22 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6150,13 +6154,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6174,7 +6178,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6186,27 +6190,27 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6217,7 +6221,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6226,22 +6230,22 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6290,28 +6294,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6319,10 +6323,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6345,19 +6349,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6406,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6418,13 +6422,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6435,10 +6439,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6461,19 +6465,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6522,7 +6526,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6531,19 +6535,19 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6551,10 +6555,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6577,19 +6581,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6638,7 +6642,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6647,19 +6651,19 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6667,10 +6671,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6681,7 +6685,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6690,22 +6694,22 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -6754,28 +6758,28 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6783,10 +6787,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6809,19 +6813,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -6870,7 +6874,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6882,13 +6886,13 @@
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -6899,10 +6903,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6913,7 +6917,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -6925,13 +6929,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6982,13 +6986,13 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
@@ -7000,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7011,14 +7015,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7037,16 +7041,16 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7096,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7108,13 +7112,13 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7125,14 +7129,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7145,25 +7149,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7212,7 +7216,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7224,13 +7228,13 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7241,10 +7245,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7255,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7267,17 +7271,17 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7302,13 +7306,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7326,25 +7330,25 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7355,10 +7359,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7369,7 +7373,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7381,19 +7385,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7442,28 +7446,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7471,10 +7475,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7497,17 +7501,17 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7556,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7568,13 +7572,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7585,10 +7589,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7599,7 +7603,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7611,17 +7615,17 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7670,25 +7674,25 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7699,10 +7703,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7725,19 +7729,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7786,7 +7790,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7798,13 +7802,13 @@
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2723" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -142,11 +142,10 @@
 </t>
   </si>
   <si>
-    <t>A grouping of people or organizations with a common purpose/共通の目的を持った人や組織の集まり【詳細参照】</t>
-  </si>
-  <si>
-    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
-集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
+    <t>共通の目的を持った人や組織の集まり【詳細参照】</t>
+  </si>
+  <si>
+    <t>集団行動の何らかの形での達成を目的として結成された、正式または非公式に認められた人々または組織のグループ。企業、機関、企業、部門、コミュニティグループ、医療実践グループ、支払者/保険者などが含まれる。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -432,18 +431,16 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems/複数のシステムでこの組織を識別【詳細参照】</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.
-複数の異種システムにまたがって組織を識別するための識別子</t>
+    <t>複数のシステムでこの組織を識別【詳細参照】</t>
+  </si>
+  <si>
+    <t>複数の異種システムにまたがって組織を識別するための識別子</t>
   </si>
   <si>
     <t>福祉医療関連施設と保険者組織はSlicingについてはJP Coreにて定義を行なっているため、定義に従いデータを格納すること。それ以外の組織については、利用する際には必要に応じて識別子を定義を行なうこと。</t>
   </si>
   <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.
-組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集している。</t>
+    <t>組織は様々な ID で知られている。いくつかの機関では複数のIDを保持しており、ほとんどの機関では、組織に関する他の組織との交換のためにIDを収集している。</t>
   </si>
   <si>
     <t xml:space="preserve">value:system}
@@ -506,7 +503,7 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -776,21 +773,18 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use / 組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.
-組織の記録がまだ現役であるかどうか。</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.
-このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。
+    <t>組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
+  </si>
+  <si>
+    <t>このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。
 この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされている。</t>
   </si>
   <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.
-レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザのために非表示にする必要がある。</t>
+    <t>このアクティブなフラグは、組織を一時的に閉鎖したり、建設中のマークとして使用するために意図されていません。代わりに、組織内の場所に中断ステータスを設定する必要があります。中断の理由の詳細が必要な場合は、この要素の拡張機能を使用する必要があります。
+この要素は修飾子としてラベル付けされています。これは、リソースが誤って作成されたことを示すために使用できるためです。</t>
+  </si>
+  <si>
+    <t>レコードが使用されなくなったことを示すためのフラグが必要で、一般的にUIではユーザのために非表示にする必要がある。</t>
   </si>
   <si>
     <t>This resource is generally assumed to be active if no value is provided for the active element</t>
@@ -811,23 +805,18 @@
     <t>Organization.type</t>
   </si>
   <si>
-    <t>Kind of organization / 組織の種類【詳細参照】</t>
-  </si>
-  <si>
-    <t>The kind(s) of organization that this is.
-その種類の組織。</t>
-  </si>
-  <si>
-    <t>Organizations can be corporations, wards, sections, clinical teams, government departments, etc. Note that code is generally a classifier of the type of organization; in many applications, codes are used to identity a particular organization (say, ward) as opposed to another of the same type - these are identifiers, not codes
-When considering if multiple types are appropriate, you should evaluate if child organizations would be a more appropriate use of the concept, as different types likely are in different sub-areas of the organization. This is most likely to be used where type values have orthogonal values, such as a religious, academic and medical center.
-We expect that some jurisdictions will profile this optionality to be a single cardinality.
-組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。
+    <t>組織の種類【詳細参照】</t>
+  </si>
+  <si>
+    <t>その種類の組織。</t>
+  </si>
+  <si>
+    <t>n組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。
 複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要がある。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
 いくつかの法域では、このオプション性を単一のカーディナリティとしてプロファイルすると予想される。</t>
   </si>
   <si>
-    <t>Need to be able to track the kind of organization that this is - different organization types have different uses.
-これがある組織の種類を追跡することができる必要がある - 異なる組織の種類は、異なる用途を持っている。</t>
+    <t>これがある組織の種類を追跡することができる必要がある - 異なる組織の種類は、異なる用途を持っている。</t>
   </si>
   <si>
     <t>example</t>
@@ -851,19 +840,16 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization / 組織に使用されている名称【詳細参照】</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.
-組織に関連付けられた名前。</t>
-  </si>
-  <si>
-    <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.
-組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討すべきである。</t>
-  </si>
-  <si>
-    <t>Need to use the name as the label of the organization.
-組織のラベルとして名前を使用する必要がある。</t>
+    <t>組織に使用されている名称【詳細参照】</t>
+  </si>
+  <si>
+    <t>組織に関連付けられた名前。</t>
+  </si>
+  <si>
+    <t>組織名が変更された場合は、旧名称をエイリアス欄に入れて検索で見つけられるようにすることを検討すべきである。</t>
+  </si>
+  <si>
+    <t>組織のラベルとして名前を使用する必要がある。</t>
   </si>
   <si>
     <t>XON.1</t>
@@ -878,20 +864,16 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past / 組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.
-組織がその名で知られている、または過去にその名で知られていた代替名のリスト。</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.
-これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はない。</t>
-  </si>
-  <si>
-    <t>Over time locations and organizations go through many changes and can be known by different names.
-For searching knowing previous names that the organization was known by can be very useful.
-時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。
+    <t>組織が知られている、または過去に知られていた別名のリスト【詳細参照】</t>
+  </si>
+  <si>
+    <t>組織がその名で知られている、または過去にその名で知られていた代替名のリスト。</t>
+  </si>
+  <si>
+    <t>これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はない。</t>
+  </si>
+  <si>
+    <t>時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。
 組織が知っている前の名前を知るための検索には、非常に便利なことができる。</t>
   </si>
   <si>
@@ -902,19 +884,16 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization / 組織の連絡先詳細【詳細参照】</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.
-組織の連絡先詳細</t>
-  </si>
-  <si>
-    <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.
-使用コード「home」は使用しないこと。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意すること。</t>
-  </si>
-  <si>
-    <t>Human contact for the organization.
-組織のヒューマンコンタクト。</t>
+    <t>組織の連絡先詳細【詳細参照】</t>
+  </si>
+  <si>
+    <t>組織の連絡先詳細</t>
+  </si>
+  <si>
+    <t>使用コード「home」は使用しないこと。これらの連絡先は、組織に雇用されている人や組織を代表する人の連絡先ではなく、組織自体の公式な連絡先であることに注意すること。</t>
+  </si>
+  <si>
+    <t>組織のヒューマンコンタクト。</t>
   </si>
   <si>
     <t xml:space="preserve">org-3
@@ -934,6 +913,159 @@
     <t>./ContactPoints</t>
   </si>
   <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other 【JP_Patient.telecomを参照。】</t>
+  </si>
+  <si>
+    <t>連絡先用通信フォーム - どの通信システムを使用するには接点が必要ですか。</t>
+  </si>
+  <si>
+    <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
+  </si>
+  <si>
+    <t>「連絡先のための通信フォーム。」</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>実際の連絡先の詳細</t>
+  </si>
+  <si>
+    <t>指定されたコミュニケーションシステムに意味がある形式での実際の連絡先の詳細（電話番号または電子メールアドレス）を提供してください。</t>
+  </si>
+  <si>
+    <t>連絡先の番号やメールアドレス</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
+  </si>
+  <si>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+  </si>
+  <si>
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
+　- work : 職場
+　- temp : 一時的
+　- old : 以前の
+　- mobile : モバイル機器</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+  </si>
+  <si>
+    <t>連絡先の使用順序（1 = 最高）</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
+  </si>
+  <si>
+    <t>連絡先が使用されていた/されている期間</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Organization.address</t>
   </si>
   <si>
@@ -941,19 +1073,16 @@
 </t>
   </si>
   <si>
-    <t>An address for the organization / 組織の住所【詳細参照】</t>
-  </si>
-  <si>
-    <t>An address for the organization.
-組織の住所</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.
-組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないこと。</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.
-連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合がある。</t>
+    <t>組織の住所【詳細参照】</t>
+  </si>
+  <si>
+    <t>組織の住所</t>
+  </si>
+  <si>
+    <t>組織は、用途や適用期間が異なる複数の住所を持っている場合がある。使用コード「home」は使用しないこと。</t>
+  </si>
+  <si>
+    <t>連絡、請求、または報告のために、組織のアドレスを追跡する必要がある場合がある。</t>
   </si>
   <si>
     <t xml:space="preserve">org-2
@@ -973,18 +1102,308 @@
     <t>./PrimaryAddress and ./OtherAddresses</t>
   </si>
   <si>
+    <t>Organization.address.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】使用コード「home」は使用しない。</t>
+  </si>
+  <si>
+    <t>The purpose of this address.
+住所の用途</t>
+  </si>
+  <si>
+    <t>住所の用途をValueSet(AddressUse)より選択する。  
+- work : 職場
+- temp : 一時的
+- old : 以前の
+- billing : 請求書、インボイス、領収書などの送付用</t>
+  </si>
+  <si>
+    <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>アドレスの使用。 / The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>住所（訪問できる住所）と郵送先住所（私書箱や気付住所など）を区別する。ほとんどのアドレスは両方。</t>
+  </si>
+  <si>
+    <t>住所の種類をValueSet(AddressType)より選択する。  
+- postal : 郵送先 - 私書箱、気付の住所
+- physical : 訪れることのできる物理的な住所
+- both : postalとphysicalの両方</t>
+  </si>
+  <si>
+    <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>住所のテキスト表現 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>表示するアドレス全体を指定する  
+例：郵便ラベル。これは、特定の部品の代わりに、または特定の部品と同様に提供される場合がある。</t>
+  </si>
+  <si>
+    <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
+- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+- 郵便番号は含めない。  
+例：東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
+    <t>レンダリング可能で、不コード化されていないフォーム。 / A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>東京都文京区本郷7-3-1</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>ストリート名や番地など 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>このコンポーネントには、家番号、アパート番号、通りの名前、通りの方向、P.O。が含まれる。ボックス番号、配達のヒント、および同様の住所情報など。</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】state要素とcity要素で表現しなかったそのあとの住所部分を番地以降の部分も含めてすべていれる。  
+英数字は半角でも全角でもよい。文字列の前後および途中に空白文字を含めないこと。  
+繰り返し要素が許されているので、区切りを表現したい場合には、複数要素に分けて格納してもよい。  
+例：本郷7-3-1  
+例：大字石神９７６  
+例：藤崎町大字藤崎字西村1-2 春山荘201号室</t>
+  </si>
+  <si>
+    <t>本郷7-3-1</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>Organization.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>市区町村名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>n市、町、郊外、村、その他のコミュニティまたは配達センターの名前。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  【JP Core仕様】郡市区町村部分だけを「郡」「市」「区」「町」「村」などの文字を含めて設定する。 例：文京区</t>
+  </si>
+  <si>
+    <t>文京区</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Organization.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>地区名 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>管理エリア（郡）の名前。 / The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】日本の住所では使用しない。</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Organization.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>国の次の地区単位 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>国の主権が制限されている国のサブユニット。日本の場合、都道府県名。</t>
+  </si>
+  <si>
+    <t>１MBを超えないこと。  都道府県名。「都」「道」「府」「県」のそれぞれの文字を含める。 例：東京都</t>
+  </si>
+  <si>
+    <t>東京都</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Region</t>
+  </si>
+  <si>
+    <t>Organization.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>郵便番号 【JP_Patient.address参照】</t>
+  </si>
+  <si>
+    <t>郵便サービスによって定義された地域を指定する郵便番号。 / A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>郵便番号。日本の郵便番号の場合には3桁数字とハイフン1文字と4桁数字からなる半角８文字、または最初の3桁だけの3文字のいずれかとする。 例：113-8655</t>
+  </si>
+  <si>
+    <t>113-8655</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>Organization.address.country</t>
+  </si>
+  <si>
+    <t>国名またはISO 3166コード　(ISO 3166 2 or 3文字こーど)</t>
+  </si>
+  <si>
+    <t>国-一般的に理解されている、または一般的に受け入れられている国の国名かコード。</t>
+  </si>
+  <si>
+    <t>ISO 3166 3文字コードは、人間が読める国名の代わりに使用する。  ISO 3166の2文字または3文字のコード.  日本であれば、jpまたはjpn</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>Organization.address.period</t>
+  </si>
+  <si>
+    <t>住所が使用されていた（いる）期間</t>
+  </si>
+  <si>
+    <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
+  </si>
+  <si>
+    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
+  </si>
+  <si>
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t>The organization of which this organization forms a part【詳細参照】</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.
-この組織が一部を構成する組織</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>【詳細参照】</t>
+  </si>
+  <si>
+    <t>この組織が一部を構成する組織</t>
+  </si>
+  <si>
+    <t>参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>Need to be able to track the hierarchy of organizations within an organization.</t>
@@ -1000,19 +1419,16 @@
 </t>
   </si>
   <si>
-    <t>Contact for the organization for a certain purpose　特定の目的のための組織の連絡先【詳細参照】</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.
-特定の目的のための組織の連絡先</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.
-同じ目的で複数の連絡先が提供されている場合、どの連絡先を使用するのが好ましいかを判断するために使用できる標準の拡張extension がある。</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.
-より大きな組織内で割り当てられた連絡先を追跡する必要がある。</t>
+    <t>特定の目的のための組織の連絡先【詳細参照】</t>
+  </si>
+  <si>
+    <t>特定の目的のための組織の連絡先</t>
+  </si>
+  <si>
+    <t>同じ目的で複数の連絡先が提供されている場合、どの連絡先を使用するのが好ましいかを判断するために使用できる標準の拡張extension がある。</t>
+  </si>
+  <si>
+    <t>より大きな組織内で割り当てられた連絡先を追跡する必要がある。</t>
   </si>
   <si>
     <t>.contactParty</t>
@@ -1021,19 +1437,7 @@
     <t>Organization.contact.id</t>
   </si>
   <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
     <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Organization.contact.modifierExtension</t>
@@ -1081,15 +1485,13 @@
 </t>
   </si>
   <si>
-    <t>Name of a human - parts and usage　人の名前情報、その一部分と使い方</t>
-  </si>
-  <si>
-    <t>A human's name with the ability to identify parts and usage.
-識別のための人の名前情報</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.
-名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
+    <t>人の名前情報、その一部分と使い方</t>
+  </si>
+  <si>
+    <t>識別のための人の名前情報</t>
+  </si>
+  <si>
+    <t>名前が変更されたり、違っていると指摘されたり、コンテキストによって使われる名前が異なる場合がある。名前は、コンテキストに応じて重要性が異なるさまざまなタイプの部分に分割される場合があり、部分への分割は必ずしも重要ではない。個人名の場合、さまざまな部分に暗黙の意味が含まれている場合と含まれていない場合がある。さまざまな文化が名前の部分にさまざまな重要性を関連付けており、システムが世界中の名前の部分を気にする必要がある程度は大きく異なる。</t>
   </si>
   <si>
     <t>Need to be able to track the person by name.</t>
@@ -1147,15 +1549,13 @@
 </t>
   </si>
   <si>
-    <t>Technical endpoints providing access to services operated for the organization　　組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
-  </si>
-  <si>
-    <t>Technical endpoints providing access to services operated for the organization.
-組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.
-組織にはさまざまなサービスを提供する複数のシステムがあり、それらに接続する方法と目的について、技術的な接続の詳細を定義できる必要がある。</t>
+    <t>組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント【詳細参照】</t>
+  </si>
+  <si>
+    <t>組織のために運営されているサービスへのアクセスを提供する技術的エンドポイント</t>
+  </si>
+  <si>
+    <t>組織にはさまざまなサービスを提供する複数のシステムがあり、それらに接続する方法と目的について、技術的な接続の詳細を定義できる必要がある。</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1489,13 +1889,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="14.66796875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.0" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1505,7 +1905,7 @@
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
@@ -6569,7 +6969,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6581,20 +6981,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
@@ -6642,28 +7038,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6671,21 +7067,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6694,23 +7090,21 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6746,40 +7140,40 @@
         <v>38</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6787,10 +7181,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6801,7 +7195,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6810,23 +7204,21 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>301</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6850,13 +7242,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -6874,28 +7266,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -6903,10 +7295,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6926,19 +7318,23 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6986,7 +7382,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>143</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6998,16 +7394,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>144</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7015,44 +7411,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7076,13 +7474,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7100,28 +7498,28 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>150</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>144</v>
+        <v>318</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7129,46 +7527,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7216,25 +7612,25 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>38</v>
@@ -7245,10 +7641,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7268,21 +7664,21 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7306,13 +7702,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7330,7 +7726,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7345,13 +7741,13 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7359,10 +7755,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7373,7 +7769,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7385,19 +7781,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7446,28 +7842,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>106</v>
+        <v>338</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>160</v>
+        <v>339</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7475,10 +7871,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7489,7 +7885,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>38</v>
@@ -7501,18 +7897,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
+        <v>142</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
       </c>
@@ -7560,25 +7954,25 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>144</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7589,21 +7983,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7615,18 +8009,18 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>146</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>38</v>
       </c>
@@ -7662,37 +8056,37 @@
         <v>38</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7703,10 +8097,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7717,31 +8111,31 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7766,13 +8160,13 @@
         <v>38</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>38</v>
+        <v>351</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>38</v>
@@ -7790,30 +8184,2208 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AK65" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}org-1:「組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません」 {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}org-1:組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -174,10 +174,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -190,7 +190,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -213,7 +213,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -232,7 +232,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -261,10 +261,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -290,10 +290,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -326,7 +326,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:prefectureNo</t>
@@ -412,7 +412,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -729,10 +729,10 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>「この組織を複数のシステムで識別する」</t>
-  </si>
-  <si>
-    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
+    <t>この組織を複数のシステムで識別する</t>
+  </si>
+  <si>
+    <t>異なる複数のシステム上で組織を識別するために使用される組織の識別子</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -822,7 +822,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>「組織を分類するために使用されます。」</t>
+    <t>組織を分類するために使用されます。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -928,7 +928,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>拡張子は常にURLで切り片にされます。</t>
@@ -946,7 +946,7 @@
     <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>「連絡先のための通信フォーム。」</t>
+    <t>連絡先のための通信フォーム。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -1036,10 +1036,10 @@
 </t>
   </si>
   <si>
-    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
-  </si>
-  <si>
-    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
+    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
+  </si>
+  <si>
+    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -1051,10 +1051,10 @@
     <t>Organization.telecom.period</t>
   </si>
   <si>
-    <t>「コンタクトポイントが使用されている時間帯」</t>
-  </si>
-  <si>
-    <t>「接点が使用されていた/現在使用中である時間期間」</t>
+    <t>コンタクトポイントが使用されている時間帯</t>
+  </si>
+  <si>
+    <t>接点が使用されていた/現在使用中である時間期間</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>
@@ -1447,11 +1447,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1463,7 +1463,7 @@
     <t>"接触の種類" (Sesshoku no shurui)</t>
   </si>
   <si>
-    <t>「連絡先に到達できる目的を示しています。」</t>
+    <t>連絡先に到達できる目的を示しています。</t>
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
@@ -1509,7 +1509,7 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>「連絡先詳細（電話、メールなど）連絡先のため」</t>
+    <t>連絡先詳細（電話、メールなど）連絡先のため</t>
   </si>
   <si>
     <t>当該のパーティーと連絡を取るための連絡先情報（例：電話番号やメールアドレス）</t>
@@ -1527,10 +1527,10 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>「連絡のための訪問先または郵送先の住所」</t>
-  </si>
-  <si>
-    <t>「連絡先の訪問または郵便送付先」</t>
+    <t>連絡のための訪問先または郵送先の住所</t>
+  </si>
+  <si>
+    <t>連絡先の訪問または郵便送付先</t>
   </si>
   <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -394,10 +394,10 @@
   </si>
   <si>
     <t>医療機関コード（７桁）。Identifier型の拡張「InsuranceOrganizationNo」を使用する。  
-systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。
+systemには医療機関コードを表すOID「1.2.392.100495.20.3.23」を指定する。  
 valueには下記の値を格納する。  
-- 保険医療機関・保険薬局 : `医療機関コード（７桁）`
-- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`
+　- 保険医療機関・保険薬局 : `医療機関コード（７桁）`  
+　- 非保険の特定健診・特定保健指導機関 : `機関コード（７桁）`  
 医療機関コードの詳しい説明は、Organizationプロファイルの医療機関コード１０桁の説明を参照すること。  
 なお上記に該当しない施設は、本拡張は使用しない。</t>
   </si>
@@ -684,8 +684,8 @@
     <t>福祉医療施設を区別するため医療機関コード（１０桁）を格納するためのIdentifier/Slicing定義。</t>
   </si>
   <si>
-    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no```を使用する。　
-value : ```医療機関コード（１０桁）```を使用する。 
+    <t xml:space="preserve">systemはFixed Valueの```http://jpfhir.jp/fhir/core/IdSystem/insurance-medical-institution-no```を使用する。  
+value : ```医療機関コード（１０桁）```を使用する。  
 医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。 </t>
   </si>
   <si>
@@ -735,7 +735,7 @@
     <t>異なる複数のシステム上で組織を識別するために使用される組織の識別子</t>
   </si>
   <si>
-    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
+    <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する  
 system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>組織の記録がまだ有効に使われているかどうか【詳細参照】</t>
   </si>
   <si>
-    <t>このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。
+    <t>このアクティブフラグは、組織を一時的に閉鎖したり、工事中であることを示すために使用されることを意図していない。代わりに、組織内の場所(複数可)は、中断されたステータスを持っている必要がある。一時停止の理由の詳細が必要な場合は、この要素の拡張子を使用する必要がある。  
 この要素は、リソースがエラーで作成されたことをマークするために使用される可能性があるため、修飾子としてラベル付けされている。</t>
   </si>
   <si>
@@ -811,8 +811,8 @@
     <t>その種類の組織。</t>
   </si>
   <si>
-    <t>n組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。
-複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要がある。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。
+    <t>n組織は、企業、病棟、セクション、臨床チーム、政府部門などにすることができる。多くのアプリケーションでは、コードは、特定の組織を識別するために使用されている（と言う、病棟）別の同じタイプのものとは対照的に - これらは識別子ではなく、コードである。  
+複数のタイプが適切かどうかを検討する際には、異なるタイプが組織の異なるサブ領域に存在する可能性が高いため、子どもの組織の方がより適切な使用法であるかどうかを評価する必要がある。これは、宗教、学術、医療センターのように、タイプの価値観が直交する場合に使用される可能性が高い。  
 いくつかの法域では、このオプション性を単一のカーディナリティとしてプロファイルすると予想される。</t>
   </si>
   <si>
@@ -873,7 +873,7 @@
     <t>これは、名前がいつ使用されたかを追跡することを目的としたものではなく、古い名前でも組織を特定できるように検索を支援することを目的としているため、別名や歴史的な名前に関連付けられた日付はない。</t>
   </si>
   <si>
-    <t>時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。
+    <t>時間の経過とともに、場所や組織はさまざまな変化を経て、さまざまな名前で知ることができる。  
 組織が知っている前の名前を知るための検索には、非常に便利なことができる。</t>
   </si>
   <si>
@@ -1001,10 +1001,10 @@
     <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
-    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。
-　- work : 職場
-　- temp : 一時的
-　- old : 以前の
+    <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
+　- work : 職場  
+　- temp : 一時的  
+　- old : 以前の  
 　- mobile : モバイル機器</t>
   </si>
   <si>
@@ -1114,15 +1114,15 @@
     <t>work | temp | old | billing - purpose of this address　住所の用途 【JP_Patient.address参照】使用コード「home」は使用しない。</t>
   </si>
   <si>
-    <t>The purpose of this address.
+    <t>The purpose of this address.  
 住所の用途</t>
   </si>
   <si>
     <t>住所の用途をValueSet(AddressUse)より選択する。  
-- work : 職場
-- temp : 一時的
-- old : 以前の
-- billing : 請求書、インボイス、領収書などの送付用</t>
+　- work : 職場  
+　- temp : 一時的  
+　- old : 以前の  
+　- billing : 請求書、インボイス、領収書などの送付用</t>
   </si>
   <si>
     <t>多くのリストから適切なアドレスを選択できるようにします。 / Allows an appropriate address to be chosen from a list of many.</t>
@@ -1153,9 +1153,9 @@
   </si>
   <si>
     <t>住所の種類をValueSet(AddressType)より選択する。  
-- postal : 郵送先 - 私書箱、気付の住所
-- physical : 訪れることのできる物理的な住所
-- both : postalとphysicalの両方</t>
+　- postal : 郵送先 - 私書箱、気付の住所  
+　- physical : 訪れることのできる物理的な住所  
+　- both : postalとphysicalの両方</t>
   </si>
   <si>
     <t>アドレスのタイプ（物理 /郵便）。 / The type of an address (physical / postal).</t>
@@ -1181,9 +1181,9 @@
   </si>
   <si>
     <t>テキスト表現とパーツの両方を提供できる。アドレスを更新するアプリケーションは、テキストとパーツの両方が存在する場合、パーツにないコンテンツはテキストに含まれないようにする必要がある。  
-- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
-- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
-- 郵便番号は含めない。  
+　- 住所を(都道府県や市町村などに)分離して管理していない場合は、textに入れる。  
+　- 住所を(都道府県や市町村などに)分離して管理している場合でも、まとめてtextに入れること。  
+　- 郵便番号は含めない。  
 例：東京都文京区本郷7-3-1</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -241,7 +241,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -287,7 +287,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -998,7 +998,7 @@
     <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
+    <t>「接点の目的を特定する。」</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -1011,7 +1011,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」(Setten no shiyō.)</t>
+    <t>「接点の使用。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-organization.xlsx
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}org-1:組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません {(identifier.count() + name.count()) &gt; 0}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}org-1:「組織は少なくとも名前または識別子を持つ必要があり、おそらく1つ以上のものもあるかもしれません」 {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -294,10 +294,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -310,7 +310,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -333,7 +333,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -349,10 +349,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -361,7 +361,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -381,10 +381,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -407,13 +407,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -446,7 +446,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Organization.extension:prefectureNo</t>
@@ -532,7 +532,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -623,7 +623,7 @@
     <t>Organization.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -849,10 +849,10 @@
     <t>insurerNumber</t>
   </si>
   <si>
-    <t>この組織を複数のシステムで識別する</t>
-  </si>
-  <si>
-    <t>異なる複数のシステム上で組織を識別するために使用される組織の識別子</t>
+    <t>「この組織を複数のシステムで識別する」</t>
+  </si>
+  <si>
+    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する  
@@ -942,7 +942,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>組織を分類するために使用されます。</t>
+    <t>「組織を分類するために使用されます。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/organization-type</t>
@@ -1048,7 +1048,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>拡張子は常にURLで切り片にされます。</t>
@@ -1066,7 +1066,7 @@
     <t>連絡先の種別をValueSet(ContactPointSystem)より選択する。  　- phone : 電話　- fax : Fax 　- email : 電子メール　- pager : ポケットベル　- url : 電話、ファックス、ポケットベル、または電子メールアドレスではなく、URLとして表される連絡先。これはWebサイト、ブログ、Skype、Twitter、Facebookなどのさまざまな機関または個人の連絡先を対象としている。電子メールアドレスには使用しないこと。　- sms : SMSメッセージの送信に使用できる連絡先（携帯電話、一部の固定電話など）  　- other : 電話、Fax、ポケットベル、または電子メールアドレスではなく、URLとして表現できない連絡先。例：内部メールアドレス。これは、URLとして表現できる連絡先（Skype、Twitter、Facebookなど）には使用しないこと。</t>
   </si>
   <si>
-    <t>連絡先のための通信フォーム。</t>
+    <t>「連絡先のための通信フォーム。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
@@ -1118,7 +1118,7 @@
     <t>work | temp | old | mobile - 連絡先の用途等 【JP_Patient.telecomを参照。】homeは使用しないこと。</t>
   </si>
   <si>
-    <t>「接点の目的を特定する。」</t>
+    <t>「接点の目的を特定する。」(Setten no mokuteki wo tokutei suru.)</t>
   </si>
   <si>
     <t>患者の連絡先の種別をValueSet(ContactPointUse)より選択する。  一時的なものまたは古いものであると明示しない限り、連絡先が最新とみなされる。  
@@ -1131,7 +1131,7 @@
     <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
   </si>
   <si>
-    <t>「接点の使用。」</t>
+    <t>「接点の使用。」(Setten no shiyō.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
@@ -1156,10 +1156,10 @@
 </t>
   </si>
   <si>
-    <t>使用の優先順位を指定してください（1が最も優先度が高い）</t>
-  </si>
-  <si>
-    <t>一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。</t>
+    <t>「使用の優先順位を指定してください（1が最も優先度が高い）」</t>
+  </si>
+  <si>
+    <t>「一連のコンタクトを使う上で好ましい順序を指定します。ランク値が低いContactPointsの方が、ランク値が高いものよりも優先されます。」</t>
   </si>
   <si>
     <t>連絡先の使用順序（1 = 最高）</t>
@@ -1171,10 +1171,10 @@
     <t>Organization.telecom.period</t>
   </si>
   <si>
-    <t>コンタクトポイントが使用されている時間帯</t>
-  </si>
-  <si>
-    <t>接点が使用されていた/現在使用中である時間期間</t>
+    <t>「コンタクトポイントが使用されている時間帯」</t>
+  </si>
+  <si>
+    <t>「接点が使用されていた/現在使用中である時間期間」</t>
   </si>
   <si>
     <t>連絡先が使用されていた/されている期間</t>
@@ -1490,7 +1490,7 @@
     <t>住所が使用されていた/されている期間。 期間は時間の範囲を指定する。使用状況はその期間全体に適用されるか、範囲から1つの値が適用される。  期間は、時間間隔（経過時間の測定値）には使用されない。</t>
   </si>
   <si>
-    <t>アドレスを履歴上の文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
+    <t>アドレスを歴史的な文脈に配置できるようにします。 / Allows addresses to be placed in historical context.</t>
   </si>
   <si>
     <t>Address.period</t>
@@ -1552,11 +1552,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1568,7 +1568,7 @@
     <t>"接触の種類" (Sesshoku no shurui)</t>
   </si>
   <si>
-    <t>連絡先に到達できる目的を示しています。</t>
+    <t>「連絡先に到達できる目的を示しています。」</t>
   </si>
   <si>
     <t>Need to distinguish between multiple contact persons.</t>
@@ -1614,7 +1614,7 @@
     <t>Organization.contact.telecom</t>
   </si>
   <si>
-    <t>連絡先詳細（電話、メールなど）連絡先のため</t>
+    <t>「連絡先詳細（電話、メールなど）連絡先のため」</t>
   </si>
   <si>
     <t>当該のパーティーと連絡を取るための連絡先情報（例：電話番号やメールアドレス）</t>
@@ -1632,10 +1632,10 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
-    <t>連絡のための訪問先または郵送先の住所</t>
-  </si>
-  <si>
-    <t>連絡先の訪問または郵便送付先</t>
+    <t>「連絡のための訪問先または郵送先の住所」</t>
+  </si>
+  <si>
+    <t>「連絡先の訪問または郵便送付先」</t>
   </si>
   <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
